--- a/weird.xlsx
+++ b/weird.xlsx
@@ -788,7 +788,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -968,6 +968,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1129,10 +1135,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1468,7 +1476,7 @@
   <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6069,28 +6077,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="178" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="3">
         <v>75</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="3">
         <v>73</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="4">
         <v>1.0269999999999999</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6798,7 +6806,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G205"/>
   <sortState ref="A2:D205">
     <sortCondition ref="D2:D205"/>
   </sortState>

--- a/weird.xlsx
+++ b/weird.xlsx
@@ -1135,12 +1135,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1473,18 +1475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:AD205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1502,27 +1504,27 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>0.17</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>IF((C2-B2)&gt;3,IF((C2-B2)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <f>IF((B2-C2)&gt;3,IF((B2-C2)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <f>E2+F2</f>
         <v>1</v>
       </c>
@@ -1541,15 +1543,15 @@
         <v>0.22</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">IF((C3-B3)&gt;3,IF((C3-B3)&gt;0,1,0),0)</f>
+        <f>IF((C3-B3)&gt;3,IF((C3-B3)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">IF((B3-C3)&gt;3,IF((B3-C3)&gt;0,1,0),0)</f>
+        <f>IF((B3-C3)&gt;3,IF((B3-C3)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="2">E3+F3</f>
+        <f>E3+F3</f>
         <v>1</v>
       </c>
     </row>
@@ -1567,41 +1569,41 @@
         <v>0.22</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>IF((C4-B4)&gt;3,IF((C4-B4)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f>IF((B4-C4)&gt;3,IF((B4-C4)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f>E4+F4</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>25</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>100</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>0.25</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
+      <c r="E5" s="3">
+        <f>IF((C5-B5)&gt;3,IF((C5-B5)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <f>IF((B5-C5)&gt;3,IF((B5-C5)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f>E5+F5</f>
         <v>1</v>
       </c>
     </row>
@@ -1619,15 +1621,15 @@
         <v>0.253</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>IF((C6-B6)&gt;3,IF((C6-B6)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f>IF((B6-C6)&gt;3,IF((B6-C6)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f>E6+F6</f>
         <v>1</v>
       </c>
     </row>
@@ -1645,15 +1647,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>IF((C7-B7)&gt;3,IF((C7-B7)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f>IF((B7-C7)&gt;3,IF((B7-C7)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f>E7+F7</f>
         <v>1</v>
       </c>
     </row>
@@ -1671,15 +1673,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>IF((C8-B8)&gt;3,IF((C8-B8)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f>IF((B8-C8)&gt;3,IF((B8-C8)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f>E8+F8</f>
         <v>1</v>
       </c>
     </row>
@@ -1697,41 +1699,41 @@
         <v>0.3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>IF((C9-B9)&gt;3,IF((C9-B9)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f>IF((B9-C9)&gt;3,IF((B9-C9)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f>E9+F9</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>36</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>100</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>0.36</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
+      <c r="E10" s="3">
+        <f>IF((C10-B10)&gt;3,IF((C10-B10)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <f>IF((B10-C10)&gt;3,IF((B10-C10)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f>E10+F10</f>
         <v>1</v>
       </c>
     </row>
@@ -1749,15 +1751,15 @@
         <v>0.37</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>IF((C11-B11)&gt;3,IF((C11-B11)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f>IF((B11-C11)&gt;3,IF((B11-C11)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f>E11+F11</f>
         <v>1</v>
       </c>
     </row>
@@ -1775,15 +1777,15 @@
         <v>0.38</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>IF((C12-B12)&gt;3,IF((C12-B12)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f>IF((B12-C12)&gt;3,IF((B12-C12)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f>E12+F12</f>
         <v>1</v>
       </c>
     </row>
@@ -1801,15 +1803,15 @@
         <v>0.38</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>IF((C13-B13)&gt;3,IF((C13-B13)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f>IF((B13-C13)&gt;3,IF((B13-C13)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f>E13+F13</f>
         <v>1</v>
       </c>
     </row>
@@ -1827,15 +1829,15 @@
         <v>0.4</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>IF((C14-B14)&gt;3,IF((C14-B14)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f>IF((B14-C14)&gt;3,IF((B14-C14)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f>E14+F14</f>
         <v>1</v>
       </c>
     </row>
@@ -1853,15 +1855,15 @@
         <v>0.4</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>IF((C15-B15)&gt;3,IF((C15-B15)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f>IF((B15-C15)&gt;3,IF((B15-C15)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f>E15+F15</f>
         <v>1</v>
       </c>
     </row>
@@ -1879,19 +1881,19 @@
         <v>0.42</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>IF((C16-B16)&gt;3,IF((C16-B16)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f>IF((B16-C16)&gt;3,IF((B16-C16)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E16+F16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -1905,45 +1907,45 @@
         <v>0.43</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>IF((C17-B17)&gt;3,IF((C17-B17)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f>IF((B17-C17)&gt;3,IF((B17-C17)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+        <f>E17+F17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>22</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>50</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>0.44</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <f>IF((C18-B18)&gt;3,IF((C18-B18)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <f>IF((B18-C18)&gt;3,IF((B18-C18)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f>E18+F18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1957,19 +1959,19 @@
         <v>0.45</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>IF((C19-B19)&gt;3,IF((C19-B19)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f>IF((B19-C19)&gt;3,IF((B19-C19)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E19+F19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>174</v>
       </c>
@@ -1983,45 +1985,45 @@
         <v>0.48</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>IF((C20-B20)&gt;3,IF((C20-B20)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f>IF((B20-C20)&gt;3,IF((B20-C20)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <f>E20+F20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>49</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>100</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <v>0.49</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="3">
+        <f>IF((C21-B21)&gt;3,IF((C21-B21)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <f>IF((B21-C21)&gt;3,IF((B21-C21)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f>E21+F21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -2035,19 +2037,19 @@
         <v>0.5</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>IF((C22-B22)&gt;3,IF((C22-B22)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f>IF((B22-C22)&gt;3,IF((B22-C22)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E22+F22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>166</v>
       </c>
@@ -2061,19 +2063,19 @@
         <v>0.5</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>IF((C23-B23)&gt;3,IF((C23-B23)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f>IF((B23-C23)&gt;3,IF((B23-C23)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E23+F23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -2087,19 +2089,19 @@
         <v>0.51</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>IF((C24-B24)&gt;3,IF((C24-B24)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f>IF((B24-C24)&gt;3,IF((B24-C24)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E24+F24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -2113,19 +2115,42 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>IF((C25-B25)&gt;3,IF((C25-B25)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f>IF((B25-C25)&gt;3,IF((B25-C25)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E25+F25</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+    </row>
+    <row r="26" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2139,45 +2164,91 @@
         <v>0.52</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>IF((C26-B26)&gt;3,IF((C26-B26)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f>IF((B26-C26)&gt;3,IF((B26-C26)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+        <f>E26+F26</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+    </row>
+    <row r="27" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>52</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>100</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="5">
         <v>0.52</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="3">
+        <f>IF((C27-B27)&gt;3,IF((C27-B27)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <f>IF((B27-C27)&gt;3,IF((B27-C27)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <f>E27+F27</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+    </row>
+    <row r="28" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -2191,19 +2262,42 @@
         <v>0.52</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>IF((C28-B28)&gt;3,IF((C28-B28)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f>IF((B28-C28)&gt;3,IF((B28-C28)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E28+F28</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+    </row>
+    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -2217,19 +2311,42 @@
         <v>0.52</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>IF((C29-B29)&gt;3,IF((C29-B29)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f>IF((B29-C29)&gt;3,IF((B29-C29)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E29+F29</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+    </row>
+    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -2243,19 +2360,42 @@
         <v>0.52</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>IF((C30-B30)&gt;3,IF((C30-B30)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f>IF((B30-C30)&gt;3,IF((B30-C30)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E30+F30</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+    </row>
+    <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -2269,45 +2409,91 @@
         <v>0.53</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>IF((C31-B31)&gt;3,IF((C31-B31)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f>IF((B31-C31)&gt;3,IF((B31-C31)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <f>E31+F31</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+    </row>
+    <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>16</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>30</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>0.53300000000000003</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="3">
+        <f>IF((C32-B32)&gt;3,IF((C32-B32)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <f>IF((B32-C32)&gt;3,IF((B32-C32)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <f>E32+F32</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+    </row>
+    <row r="33" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -2321,19 +2507,42 @@
         <v>0.54</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>IF((C33-B33)&gt;3,IF((C33-B33)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f>IF((B33-C33)&gt;3,IF((B33-C33)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E33+F33</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+    </row>
+    <row r="34" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -2347,19 +2556,42 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f>IF((C34-B34)&gt;3,IF((C34-B34)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f>IF((B34-C34)&gt;3,IF((B34-C34)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E34+F34</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+    </row>
+    <row r="35" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -2373,19 +2605,42 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f>IF((C35-B35)&gt;3,IF((C35-B35)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f>IF((B35-C35)&gt;3,IF((B35-C35)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E35+F35</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+    </row>
+    <row r="36" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>193</v>
       </c>
@@ -2399,45 +2654,91 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f>IF((C36-B36)&gt;3,IF((C36-B36)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f>IF((B36-C36)&gt;3,IF((B36-C36)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+        <f>E36+F36</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+    </row>
+    <row r="37" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>28</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>50</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="3">
+        <f>IF((C37-B37)&gt;3,IF((C37-B37)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <f>IF((B37-C37)&gt;3,IF((B37-C37)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <f>E37+F37</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+    </row>
+    <row r="38" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -2451,19 +2752,42 @@
         <v>0.56599999999999995</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f>IF((C38-B38)&gt;3,IF((C38-B38)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f>IF((B38-C38)&gt;3,IF((B38-C38)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E38+F38</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+    </row>
+    <row r="39" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2477,19 +2801,42 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f>IF((C39-B39)&gt;3,IF((C39-B39)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f>IF((B39-C39)&gt;3,IF((B39-C39)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E39+F39</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+    </row>
+    <row r="40" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -2503,19 +2850,42 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f>IF((C40-B40)&gt;3,IF((C40-B40)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f>IF((B40-C40)&gt;3,IF((B40-C40)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E40+F40</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+    </row>
+    <row r="41" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -2529,19 +2899,42 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f>IF((C41-B41)&gt;3,IF((C41-B41)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f>IF((B41-C41)&gt;3,IF((B41-C41)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E41+F41</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+    </row>
+    <row r="42" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -2555,19 +2948,42 @@
         <v>0.6</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f>IF((C42-B42)&gt;3,IF((C42-B42)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f>IF((B42-C42)&gt;3,IF((B42-C42)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E42+F42</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+    </row>
+    <row r="43" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>117</v>
       </c>
@@ -2581,19 +2997,42 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f>IF((C43-B43)&gt;3,IF((C43-B43)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f>IF((B43-C43)&gt;3,IF((B43-C43)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E43+F43</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+    </row>
+    <row r="44" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -2607,19 +3046,42 @@
         <v>0.62</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f>IF((C44-B44)&gt;3,IF((C44-B44)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f>IF((B44-C44)&gt;3,IF((B44-C44)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E44+F44</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+    </row>
+    <row r="45" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -2633,19 +3095,42 @@
         <v>0.62</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f>IF((C45-B45)&gt;3,IF((C45-B45)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f>IF((B45-C45)&gt;3,IF((B45-C45)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E45+F45</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+    </row>
+    <row r="46" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2659,19 +3144,42 @@
         <v>0.64</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f>IF((C46-B46)&gt;3,IF((C46-B46)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f>IF((B46-C46)&gt;3,IF((B46-C46)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E46+F46</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -2685,19 +3193,42 @@
         <v>0.64</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f>IF((C47-B47)&gt;3,IF((C47-B47)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f>IF((B47-C47)&gt;3,IF((B47-C47)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E47+F47</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2711,19 +3242,42 @@
         <v>0.64</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f>IF((C48-B48)&gt;3,IF((C48-B48)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f>IF((B48-C48)&gt;3,IF((B48-C48)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E48+F48</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -2737,19 +3291,42 @@
         <v>0.64</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f>IF((C49-B49)&gt;3,IF((C49-B49)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f>IF((B49-C49)&gt;3,IF((B49-C49)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E49+F49</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2763,19 +3340,19 @@
         <v>0.65</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f>IF((C50-B50)&gt;3,IF((C50-B50)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f>IF((B50-C50)&gt;3,IF((B50-C50)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E50+F50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>164</v>
       </c>
@@ -2789,19 +3366,19 @@
         <v>0.65</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f>IF((C51-B51)&gt;3,IF((C51-B51)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f>IF((B51-C51)&gt;3,IF((B51-C51)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E51+F51</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -2815,19 +3392,19 @@
         <v>0.65</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f>IF((C52-B52)&gt;3,IF((C52-B52)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f>IF((B52-C52)&gt;3,IF((B52-C52)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E52+F52</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>144</v>
       </c>
@@ -2841,19 +3418,19 @@
         <v>0.66</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f>IF((C53-B53)&gt;3,IF((C53-B53)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f>IF((B53-C53)&gt;3,IF((B53-C53)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E53+F53</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -2867,19 +3444,19 @@
         <v>0.67</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f>IF((C54-B54)&gt;3,IF((C54-B54)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f>IF((B54-C54)&gt;3,IF((B54-C54)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E54+F54</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>198</v>
       </c>
@@ -2893,19 +3470,19 @@
         <v>0.67</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f>IF((C55-B55)&gt;3,IF((C55-B55)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f>IF((B55-C55)&gt;3,IF((B55-C55)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G55">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E55+F55</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -2919,19 +3496,19 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f>IF((C56-B56)&gt;3,IF((C56-B56)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f>IF((B56-C56)&gt;3,IF((B56-C56)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E56+F56</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>95</v>
       </c>
@@ -2945,19 +3522,19 @@
         <v>0.68</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f>IF((C57-B57)&gt;3,IF((C57-B57)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f>IF((B57-C57)&gt;3,IF((B57-C57)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E57+F57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -2971,19 +3548,19 @@
         <v>0.68</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f>IF((C58-B58)&gt;3,IF((C58-B58)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f>IF((B58-C58)&gt;3,IF((B58-C58)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E58+F58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -2997,19 +3574,19 @@
         <v>0.68</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f>IF((C59-B59)&gt;3,IF((C59-B59)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f>IF((B59-C59)&gt;3,IF((B59-C59)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E59+F59</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -3023,45 +3600,45 @@
         <v>0.68</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f>IF((C60-B60)&gt;3,IF((C60-B60)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f>IF((B60-C60)&gt;3,IF((B60-C60)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+        <f>E60+F60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>7</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>10</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="5">
         <v>0.7</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E61" s="3">
+        <f>IF((C61-B61)&gt;3,IF((C61-B61)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <f>IF((B61-C61)&gt;3,IF((B61-C61)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <f>E61+F61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>160</v>
       </c>
@@ -3075,19 +3652,19 @@
         <v>0.7</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
+        <f>IF((C62-B62)&gt;3,IF((C62-B62)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f>IF((B62-C62)&gt;3,IF((B62-C62)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E62+F62</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -3101,19 +3678,19 @@
         <v>0.71</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
+        <f>IF((C63-B63)&gt;3,IF((C63-B63)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f>IF((B63-C63)&gt;3,IF((B63-C63)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E63+F63</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -3127,15 +3704,15 @@
         <v>0.72</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
+        <f>IF((C64-B64)&gt;3,IF((C64-B64)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f>IF((B64-C64)&gt;3,IF((B64-C64)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
+        <f>E64+F64</f>
         <v>1</v>
       </c>
     </row>
@@ -3153,15 +3730,15 @@
         <v>0.72</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
+        <f>IF((C65-B65)&gt;3,IF((C65-B65)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f>IF((B65-C65)&gt;3,IF((B65-C65)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
+        <f>E65+F65</f>
         <v>1</v>
       </c>
     </row>
@@ -3179,15 +3756,15 @@
         <v>0.72</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
+        <f>IF((C66-B66)&gt;3,IF((C66-B66)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <f>IF((B66-C66)&gt;3,IF((B66-C66)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
+        <f>E66+F66</f>
         <v>1</v>
       </c>
     </row>
@@ -3205,15 +3782,15 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">IF((C67-B67)&gt;3,IF((C67-B67)&gt;0,1,0),0)</f>
+        <f>IF((C67-B67)&gt;3,IF((C67-B67)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="4">IF((B67-C67)&gt;3,IF((B67-C67)&gt;0,1,0),0)</f>
+        <f>IF((B67-C67)&gt;3,IF((B67-C67)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="5">E67+F67</f>
+        <f>E67+F67</f>
         <v>1</v>
       </c>
     </row>
@@ -3231,15 +3808,15 @@
         <v>0.74</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f>IF((C68-B68)&gt;3,IF((C68-B68)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
+        <f>IF((B68-C68)&gt;3,IF((B68-C68)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" si="5"/>
+        <f>E68+F68</f>
         <v>1</v>
       </c>
     </row>
@@ -3257,15 +3834,15 @@
         <v>0.74</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f>IF((C69-B69)&gt;3,IF((C69-B69)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
+        <f>IF((B69-C69)&gt;3,IF((B69-C69)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f>E69+F69</f>
         <v>1</v>
       </c>
     </row>
@@ -3283,15 +3860,15 @@
         <v>0.75</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f>IF((C70-B70)&gt;3,IF((C70-B70)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
+        <f>IF((B70-C70)&gt;3,IF((B70-C70)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f>E70+F70</f>
         <v>1</v>
       </c>
     </row>
@@ -3309,15 +3886,15 @@
         <v>0.75</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f>IF((C71-B71)&gt;3,IF((C71-B71)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
+        <f>IF((B71-C71)&gt;3,IF((B71-C71)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f>E71+F71</f>
         <v>1</v>
       </c>
     </row>
@@ -3335,15 +3912,15 @@
         <v>0.75</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f>IF((C72-B72)&gt;3,IF((C72-B72)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
+        <f>IF((B72-C72)&gt;3,IF((B72-C72)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f>E72+F72</f>
         <v>1</v>
       </c>
     </row>
@@ -3361,67 +3938,67 @@
         <v>0.75</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f>IF((C73-B73)&gt;3,IF((C73-B73)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
+        <f>IF((B73-C73)&gt;3,IF((B73-C73)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
+        <f>E73+F73</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>76</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>100</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="5">
         <v>0.76</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="5"/>
+      <c r="E74" s="3">
+        <f>IF((C74-B74)&gt;3,IF((C74-B74)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <f>IF((B74-C74)&gt;3,IF((B74-C74)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <f>E74+F74</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>76</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>100</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="5">
         <v>0.76</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="5"/>
+      <c r="E75" s="3">
+        <f>IF((C75-B75)&gt;3,IF((C75-B75)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <f>IF((B75-C75)&gt;3,IF((B75-C75)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <f>E75+F75</f>
         <v>1</v>
       </c>
     </row>
@@ -3439,15 +4016,15 @@
         <v>0.76</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f>IF((C76-B76)&gt;3,IF((C76-B76)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
+        <f>IF((B76-C76)&gt;3,IF((B76-C76)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f>E76+F76</f>
         <v>1</v>
       </c>
     </row>
@@ -3465,15 +4042,15 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f>IF((C77-B77)&gt;3,IF((C77-B77)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
+        <f>IF((B77-C77)&gt;3,IF((B77-C77)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
+        <f>E77+F77</f>
         <v>1</v>
       </c>
     </row>
@@ -3491,15 +4068,15 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f>IF((C78-B78)&gt;3,IF((C78-B78)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
+        <f>IF((B78-C78)&gt;3,IF((B78-C78)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
+        <f>E78+F78</f>
         <v>1</v>
       </c>
     </row>
@@ -3517,15 +4094,15 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f>IF((C79-B79)&gt;3,IF((C79-B79)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
+        <f>IF((B79-C79)&gt;3,IF((B79-C79)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
+        <f>E79+F79</f>
         <v>1</v>
       </c>
     </row>
@@ -3543,67 +4120,67 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f>IF((C80-B80)&gt;3,IF((C80-B80)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
+        <f>IF((B80-C80)&gt;3,IF((B80-C80)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="5"/>
+        <f>E80+F80</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>77</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>100</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="5">
         <v>0.77</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="5"/>
+      <c r="E81" s="3">
+        <f>IF((C81-B81)&gt;3,IF((C81-B81)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <f>IF((B81-C81)&gt;3,IF((B81-C81)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <f>E81+F81</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>77</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>100</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="5">
         <v>0.77</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="5"/>
+      <c r="E82" s="3">
+        <f>IF((C82-B82)&gt;3,IF((C82-B82)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <f>IF((B82-C82)&gt;3,IF((B82-C82)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <f>E82+F82</f>
         <v>1</v>
       </c>
     </row>
@@ -3621,15 +4198,15 @@
         <v>0.77</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f>IF((C83-B83)&gt;3,IF((C83-B83)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
+        <f>IF((B83-C83)&gt;3,IF((B83-C83)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
+        <f>E83+F83</f>
         <v>1</v>
       </c>
     </row>
@@ -3647,15 +4224,15 @@
         <v>0.78</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f>IF((C84-B84)&gt;3,IF((C84-B84)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
+        <f>IF((B84-C84)&gt;3,IF((B84-C84)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
+        <f>E84+F84</f>
         <v>1</v>
       </c>
     </row>
@@ -3673,15 +4250,15 @@
         <v>0.78</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f>IF((C85-B85)&gt;3,IF((C85-B85)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
+        <f>IF((B85-C85)&gt;3,IF((B85-C85)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
+        <f>E85+F85</f>
         <v>1</v>
       </c>
     </row>
@@ -3699,15 +4276,15 @@
         <v>0.78</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f>IF((C86-B86)&gt;3,IF((C86-B86)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
+        <f>IF((B86-C86)&gt;3,IF((B86-C86)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
+        <f>E86+F86</f>
         <v>1</v>
       </c>
     </row>
@@ -3725,15 +4302,15 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f>IF((C87-B87)&gt;3,IF((C87-B87)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
+        <f>IF((B87-C87)&gt;3,IF((B87-C87)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
+        <f>E87+F87</f>
         <v>1</v>
       </c>
     </row>
@@ -3751,15 +4328,15 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f>IF((C88-B88)&gt;3,IF((C88-B88)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
+        <f>IF((B88-C88)&gt;3,IF((B88-C88)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
+        <f>E88+F88</f>
         <v>1</v>
       </c>
     </row>
@@ -3777,15 +4354,15 @@
         <v>0.79</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f>IF((C89-B89)&gt;3,IF((C89-B89)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
+        <f>IF((B89-C89)&gt;3,IF((B89-C89)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
+        <f>E89+F89</f>
         <v>1</v>
       </c>
     </row>
@@ -3803,15 +4380,15 @@
         <v>0.79</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f>IF((C90-B90)&gt;3,IF((C90-B90)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
+        <f>IF((B90-C90)&gt;3,IF((B90-C90)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
+        <f>E90+F90</f>
         <v>1</v>
       </c>
     </row>
@@ -3829,15 +4406,15 @@
         <v>0.79</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f>IF((C91-B91)&gt;3,IF((C91-B91)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
+        <f>IF((B91-C91)&gt;3,IF((B91-C91)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
+        <f>E91+F91</f>
         <v>1</v>
       </c>
     </row>
@@ -3855,41 +4432,41 @@
         <v>0.8</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f>IF((C92-B92)&gt;3,IF((C92-B92)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
+        <f>IF((B92-C92)&gt;3,IF((B92-C92)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
+        <f>E92+F92</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>82</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>100</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="5">
         <v>0.82</v>
       </c>
-      <c r="E93">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="5"/>
+      <c r="E93" s="3">
+        <f>IF((C93-B93)&gt;3,IF((C93-B93)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <f>IF((B93-C93)&gt;3,IF((B93-C93)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <f>E93+F93</f>
         <v>1</v>
       </c>
     </row>
@@ -3907,15 +4484,15 @@
         <v>0.82</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f>IF((C94-B94)&gt;3,IF((C94-B94)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
+        <f>IF((B94-C94)&gt;3,IF((B94-C94)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="5"/>
+        <f>E94+F94</f>
         <v>1</v>
       </c>
     </row>
@@ -3933,15 +4510,15 @@
         <v>0.82</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f>IF((C95-B95)&gt;3,IF((C95-B95)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
+        <f>IF((B95-C95)&gt;3,IF((B95-C95)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
+        <f>E95+F95</f>
         <v>1</v>
       </c>
     </row>
@@ -3959,15 +4536,15 @@
         <v>0.82</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f>IF((C96-B96)&gt;3,IF((C96-B96)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
+        <f>IF((B96-C96)&gt;3,IF((B96-C96)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
+        <f>E96+F96</f>
         <v>1</v>
       </c>
     </row>
@@ -3985,15 +4562,15 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
+        <f>IF((C97-B97)&gt;3,IF((C97-B97)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
+        <f>IF((B97-C97)&gt;3,IF((B97-C97)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
+        <f>E97+F97</f>
         <v>0</v>
       </c>
     </row>
@@ -4011,15 +4588,15 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
+        <f>IF((C98-B98)&gt;3,IF((C98-B98)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
+        <f>IF((B98-C98)&gt;3,IF((B98-C98)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
+        <f>E98+F98</f>
         <v>1</v>
       </c>
     </row>
@@ -4037,15 +4614,15 @@
         <v>0.84</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
+        <f>IF((C99-B99)&gt;3,IF((C99-B99)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
+        <f>IF((B99-C99)&gt;3,IF((B99-C99)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
+        <f>E99+F99</f>
         <v>1</v>
       </c>
     </row>
@@ -4063,15 +4640,15 @@
         <v>0.84</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f>IF((C100-B100)&gt;3,IF((C100-B100)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
+        <f>IF((B100-C100)&gt;3,IF((B100-C100)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
+        <f>E100+F100</f>
         <v>1</v>
       </c>
     </row>
@@ -4089,15 +4666,15 @@
         <v>0.84</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
+        <f>IF((C101-B101)&gt;3,IF((C101-B101)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F101">
-        <f t="shared" si="4"/>
+        <f>IF((B101-C101)&gt;3,IF((B101-C101)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G101">
-        <f t="shared" si="5"/>
+        <f>E101+F101</f>
         <v>1</v>
       </c>
     </row>
@@ -4115,15 +4692,15 @@
         <v>0.85</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
+        <f>IF((C102-B102)&gt;3,IF((C102-B102)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F102">
-        <f t="shared" si="4"/>
+        <f>IF((B102-C102)&gt;3,IF((B102-C102)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G102">
-        <f t="shared" si="5"/>
+        <f>E102+F102</f>
         <v>1</v>
       </c>
     </row>
@@ -4141,15 +4718,15 @@
         <v>0.85</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
+        <f>IF((C103-B103)&gt;3,IF((C103-B103)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F103">
-        <f t="shared" si="4"/>
+        <f>IF((B103-C103)&gt;3,IF((B103-C103)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G103">
-        <f t="shared" si="5"/>
+        <f>E103+F103</f>
         <v>0</v>
       </c>
     </row>
@@ -4167,15 +4744,15 @@
         <v>0.85</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
+        <f>IF((C104-B104)&gt;3,IF((C104-B104)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F104">
-        <f t="shared" si="4"/>
+        <f>IF((B104-C104)&gt;3,IF((B104-C104)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" si="5"/>
+        <f>E104+F104</f>
         <v>0</v>
       </c>
     </row>
@@ -4193,15 +4770,15 @@
         <v>0.86</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
+        <f>IF((C105-B105)&gt;3,IF((C105-B105)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F105">
-        <f t="shared" si="4"/>
+        <f>IF((B105-C105)&gt;3,IF((B105-C105)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G105">
-        <f t="shared" si="5"/>
+        <f>E105+F105</f>
         <v>1</v>
       </c>
     </row>
@@ -4219,15 +4796,15 @@
         <v>0.86</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
+        <f>IF((C106-B106)&gt;3,IF((C106-B106)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F106">
-        <f t="shared" si="4"/>
+        <f>IF((B106-C106)&gt;3,IF((B106-C106)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G106">
-        <f t="shared" si="5"/>
+        <f>E106+F106</f>
         <v>1</v>
       </c>
     </row>
@@ -4245,15 +4822,15 @@
         <v>0.86</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
+        <f>IF((C107-B107)&gt;3,IF((C107-B107)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F107">
-        <f t="shared" si="4"/>
+        <f>IF((B107-C107)&gt;3,IF((B107-C107)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G107">
-        <f t="shared" si="5"/>
+        <f>E107+F107</f>
         <v>1</v>
       </c>
     </row>
@@ -4271,15 +4848,15 @@
         <v>0.86</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
+        <f>IF((C108-B108)&gt;3,IF((C108-B108)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F108">
-        <f t="shared" si="4"/>
+        <f>IF((B108-C108)&gt;3,IF((B108-C108)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G108">
-        <f t="shared" si="5"/>
+        <f>E108+F108</f>
         <v>1</v>
       </c>
     </row>
@@ -4297,41 +4874,41 @@
         <v>0.86</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
+        <f>IF((C109-B109)&gt;3,IF((C109-B109)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F109">
-        <f t="shared" si="4"/>
+        <f>IF((B109-C109)&gt;3,IF((B109-C109)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G109">
-        <f t="shared" si="5"/>
+        <f>E109+F109</f>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3">
         <v>88</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="3">
         <v>100</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="5">
         <v>0.88</v>
       </c>
-      <c r="E110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="5"/>
+      <c r="E110" s="3">
+        <f>IF((C110-B110)&gt;3,IF((C110-B110)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F110" s="3">
+        <f>IF((B110-C110)&gt;3,IF((B110-C110)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="3">
+        <f>E110+F110</f>
         <v>1</v>
       </c>
     </row>
@@ -4349,15 +4926,15 @@
         <v>0.88</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
+        <f>IF((C111-B111)&gt;3,IF((C111-B111)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F111">
-        <f t="shared" si="4"/>
+        <f>IF((B111-C111)&gt;3,IF((B111-C111)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G111">
-        <f t="shared" si="5"/>
+        <f>E111+F111</f>
         <v>1</v>
       </c>
     </row>
@@ -4375,15 +4952,15 @@
         <v>0.89</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
+        <f>IF((C112-B112)&gt;3,IF((C112-B112)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F112">
-        <f t="shared" si="4"/>
+        <f>IF((B112-C112)&gt;3,IF((B112-C112)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G112">
-        <f t="shared" si="5"/>
+        <f>E112+F112</f>
         <v>1</v>
       </c>
     </row>
@@ -4401,15 +4978,15 @@
         <v>0.89300000000000002</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
+        <f>IF((C113-B113)&gt;3,IF((C113-B113)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F113">
-        <f t="shared" si="4"/>
+        <f>IF((B113-C113)&gt;3,IF((B113-C113)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G113">
-        <f t="shared" si="5"/>
+        <f>E113+F113</f>
         <v>1</v>
       </c>
     </row>
@@ -4427,15 +5004,15 @@
         <v>0.9</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
+        <f>IF((C114-B114)&gt;3,IF((C114-B114)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F114">
-        <f t="shared" si="4"/>
+        <f>IF((B114-C114)&gt;3,IF((B114-C114)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G114">
-        <f t="shared" si="5"/>
+        <f>E114+F114</f>
         <v>1</v>
       </c>
     </row>
@@ -4453,15 +5030,15 @@
         <v>0.9</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
+        <f>IF((C115-B115)&gt;3,IF((C115-B115)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F115">
-        <f t="shared" si="4"/>
+        <f>IF((B115-C115)&gt;3,IF((B115-C115)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G115">
-        <f t="shared" si="5"/>
+        <f>E115+F115</f>
         <v>1</v>
       </c>
     </row>
@@ -4479,15 +5056,15 @@
         <v>0.9</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
+        <f>IF((C116-B116)&gt;3,IF((C116-B116)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F116">
-        <f t="shared" si="4"/>
+        <f>IF((B116-C116)&gt;3,IF((B116-C116)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G116">
-        <f t="shared" si="5"/>
+        <f>E116+F116</f>
         <v>1</v>
       </c>
     </row>
@@ -4505,15 +5082,15 @@
         <v>0.9</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
+        <f>IF((C117-B117)&gt;3,IF((C117-B117)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F117">
-        <f t="shared" si="4"/>
+        <f>IF((B117-C117)&gt;3,IF((B117-C117)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G117">
-        <f t="shared" si="5"/>
+        <f>E117+F117</f>
         <v>1</v>
       </c>
     </row>
@@ -4531,15 +5108,15 @@
         <v>0.91</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
+        <f>IF((C118-B118)&gt;3,IF((C118-B118)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F118">
-        <f t="shared" si="4"/>
+        <f>IF((B118-C118)&gt;3,IF((B118-C118)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G118">
-        <f t="shared" si="5"/>
+        <f>E118+F118</f>
         <v>1</v>
       </c>
     </row>
@@ -4557,15 +5134,15 @@
         <v>0.92</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
+        <f>IF((C119-B119)&gt;3,IF((C119-B119)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F119">
-        <f t="shared" si="4"/>
+        <f>IF((B119-C119)&gt;3,IF((B119-C119)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G119">
-        <f t="shared" si="5"/>
+        <f>E119+F119</f>
         <v>1</v>
       </c>
     </row>
@@ -4583,15 +5160,15 @@
         <v>0.92</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
+        <f>IF((C120-B120)&gt;3,IF((C120-B120)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F120">
-        <f t="shared" si="4"/>
+        <f>IF((B120-C120)&gt;3,IF((B120-C120)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="5"/>
+        <f>E120+F120</f>
         <v>1</v>
       </c>
     </row>
@@ -4609,15 +5186,15 @@
         <v>0.92</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
+        <f>IF((C121-B121)&gt;3,IF((C121-B121)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F121">
-        <f t="shared" si="4"/>
+        <f>IF((B121-C121)&gt;3,IF((B121-C121)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="5"/>
+        <f>E121+F121</f>
         <v>1</v>
       </c>
     </row>
@@ -4635,15 +5212,15 @@
         <v>0.92</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
+        <f>IF((C122-B122)&gt;3,IF((C122-B122)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F122">
-        <f t="shared" si="4"/>
+        <f>IF((B122-C122)&gt;3,IF((B122-C122)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="5"/>
+        <f>E122+F122</f>
         <v>1</v>
       </c>
     </row>
@@ -4661,15 +5238,15 @@
         <v>0.92</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
+        <f>IF((C123-B123)&gt;3,IF((C123-B123)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F123">
-        <f t="shared" si="4"/>
+        <f>IF((B123-C123)&gt;3,IF((B123-C123)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G123">
-        <f t="shared" si="5"/>
+        <f>E123+F123</f>
         <v>1</v>
       </c>
     </row>
@@ -4687,15 +5264,15 @@
         <v>0.92</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
+        <f>IF((C124-B124)&gt;3,IF((C124-B124)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F124">
-        <f t="shared" si="4"/>
+        <f>IF((B124-C124)&gt;3,IF((B124-C124)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" si="5"/>
+        <f>E124+F124</f>
         <v>1</v>
       </c>
     </row>
@@ -4713,15 +5290,15 @@
         <v>0.92</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
+        <f>IF((C125-B125)&gt;3,IF((C125-B125)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F125">
-        <f t="shared" si="4"/>
+        <f>IF((B125-C125)&gt;3,IF((B125-C125)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G125">
-        <f t="shared" si="5"/>
+        <f>E125+F125</f>
         <v>1</v>
       </c>
     </row>
@@ -4739,15 +5316,15 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
+        <f>IF((C126-B126)&gt;3,IF((C126-B126)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F126">
-        <f t="shared" si="4"/>
+        <f>IF((B126-C126)&gt;3,IF((B126-C126)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G126">
-        <f t="shared" si="5"/>
+        <f>E126+F126</f>
         <v>1</v>
       </c>
     </row>
@@ -4765,15 +5342,15 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
+        <f>IF((C127-B127)&gt;3,IF((C127-B127)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F127">
-        <f t="shared" si="4"/>
+        <f>IF((B127-C127)&gt;3,IF((B127-C127)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" si="5"/>
+        <f>E127+F127</f>
         <v>1</v>
       </c>
     </row>
@@ -4791,15 +5368,15 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
+        <f>IF((C128-B128)&gt;3,IF((C128-B128)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F128">
-        <f t="shared" si="4"/>
+        <f>IF((B128-C128)&gt;3,IF((B128-C128)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G128">
-        <f t="shared" si="5"/>
+        <f>E128+F128</f>
         <v>1</v>
       </c>
     </row>
@@ -4817,15 +5394,15 @@
         <v>0.94</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
+        <f>IF((C129-B129)&gt;3,IF((C129-B129)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F129">
-        <f t="shared" si="4"/>
+        <f>IF((B129-C129)&gt;3,IF((B129-C129)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G129">
-        <f t="shared" si="5"/>
+        <f>E129+F129</f>
         <v>0</v>
       </c>
     </row>
@@ -4843,15 +5420,15 @@
         <v>0.94</v>
       </c>
       <c r="E130">
-        <f t="shared" si="3"/>
+        <f>IF((C130-B130)&gt;3,IF((C130-B130)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F130">
-        <f t="shared" si="4"/>
+        <f>IF((B130-C130)&gt;3,IF((B130-C130)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G130">
-        <f t="shared" si="5"/>
+        <f>E130+F130</f>
         <v>0</v>
       </c>
     </row>
@@ -4869,15 +5446,15 @@
         <v>0.94</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="6">IF((C131-B131)&gt;3,IF((C131-B131)&gt;0,1,0),0)</f>
+        <f>IF((C131-B131)&gt;3,IF((C131-B131)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="7">IF((B131-C131)&gt;3,IF((B131-C131)&gt;0,1,0),0)</f>
+        <f>IF((B131-C131)&gt;3,IF((B131-C131)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G194" si="8">E131+F131</f>
+        <f>E131+F131</f>
         <v>0</v>
       </c>
     </row>
@@ -4895,15 +5472,15 @@
         <v>0.94</v>
       </c>
       <c r="E132">
-        <f t="shared" si="6"/>
+        <f>IF((C132-B132)&gt;3,IF((C132-B132)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F132">
-        <f t="shared" si="7"/>
+        <f>IF((B132-C132)&gt;3,IF((B132-C132)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G132">
-        <f t="shared" si="8"/>
+        <f>E132+F132</f>
         <v>0</v>
       </c>
     </row>
@@ -4921,15 +5498,15 @@
         <v>0.94</v>
       </c>
       <c r="E133">
-        <f t="shared" si="6"/>
+        <f>IF((C133-B133)&gt;3,IF((C133-B133)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F133">
-        <f t="shared" si="7"/>
+        <f>IF((B133-C133)&gt;3,IF((B133-C133)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G133">
-        <f t="shared" si="8"/>
+        <f>E133+F133</f>
         <v>0</v>
       </c>
     </row>
@@ -4947,15 +5524,15 @@
         <v>0.94</v>
       </c>
       <c r="E134">
-        <f t="shared" si="6"/>
+        <f>IF((C134-B134)&gt;3,IF((C134-B134)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F134">
-        <f t="shared" si="7"/>
+        <f>IF((B134-C134)&gt;3,IF((B134-C134)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G134">
-        <f t="shared" si="8"/>
+        <f>E134+F134</f>
         <v>1</v>
       </c>
     </row>
@@ -4973,15 +5550,15 @@
         <v>0.94</v>
       </c>
       <c r="E135">
-        <f t="shared" si="6"/>
+        <f>IF((C135-B135)&gt;3,IF((C135-B135)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F135">
-        <f t="shared" si="7"/>
+        <f>IF((B135-C135)&gt;3,IF((B135-C135)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G135">
-        <f t="shared" si="8"/>
+        <f>E135+F135</f>
         <v>1</v>
       </c>
     </row>
@@ -4999,15 +5576,15 @@
         <v>0.95</v>
       </c>
       <c r="E136">
-        <f t="shared" si="6"/>
+        <f>IF((C136-B136)&gt;3,IF((C136-B136)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F136">
-        <f t="shared" si="7"/>
+        <f>IF((B136-C136)&gt;3,IF((B136-C136)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G136">
-        <f t="shared" si="8"/>
+        <f>E136+F136</f>
         <v>0</v>
       </c>
     </row>
@@ -5025,15 +5602,15 @@
         <v>0.95</v>
       </c>
       <c r="E137">
-        <f t="shared" si="6"/>
+        <f>IF((C137-B137)&gt;3,IF((C137-B137)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F137">
-        <f t="shared" si="7"/>
+        <f>IF((B137-C137)&gt;3,IF((B137-C137)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G137">
-        <f t="shared" si="8"/>
+        <f>E137+F137</f>
         <v>0</v>
       </c>
     </row>
@@ -5051,15 +5628,15 @@
         <v>0.95</v>
       </c>
       <c r="E138">
-        <f t="shared" si="6"/>
+        <f>IF((C138-B138)&gt;3,IF((C138-B138)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F138">
-        <f t="shared" si="7"/>
+        <f>IF((B138-C138)&gt;3,IF((B138-C138)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G138">
-        <f t="shared" si="8"/>
+        <f>E138+F138</f>
         <v>0</v>
       </c>
     </row>
@@ -5077,41 +5654,41 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="E139">
-        <f t="shared" si="6"/>
+        <f>IF((C139-B139)&gt;3,IF((C139-B139)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F139">
-        <f t="shared" si="7"/>
+        <f>IF((B139-C139)&gt;3,IF((B139-C139)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G139">
-        <f t="shared" si="8"/>
+        <f>E139+F139</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3">
         <v>96</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="3">
         <v>100</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="5">
         <v>0.96</v>
       </c>
-      <c r="E140">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="8"/>
+      <c r="E140" s="3">
+        <f>IF((C140-B140)&gt;3,IF((C140-B140)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F140" s="3">
+        <f>IF((B140-C140)&gt;3,IF((B140-C140)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G140" s="3">
+        <f>E140+F140</f>
         <v>1</v>
       </c>
     </row>
@@ -5129,15 +5706,15 @@
         <v>0.96</v>
       </c>
       <c r="E141">
-        <f t="shared" si="6"/>
+        <f>IF((C141-B141)&gt;3,IF((C141-B141)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F141">
-        <f t="shared" si="7"/>
+        <f>IF((B141-C141)&gt;3,IF((B141-C141)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G141">
-        <f t="shared" si="8"/>
+        <f>E141+F141</f>
         <v>0</v>
       </c>
     </row>
@@ -5155,15 +5732,15 @@
         <v>0.96</v>
       </c>
       <c r="E142">
-        <f t="shared" si="6"/>
+        <f>IF((C142-B142)&gt;3,IF((C142-B142)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F142">
-        <f t="shared" si="7"/>
+        <f>IF((B142-C142)&gt;3,IF((B142-C142)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G142">
-        <f t="shared" si="8"/>
+        <f>E142+F142</f>
         <v>0</v>
       </c>
     </row>
@@ -5181,15 +5758,15 @@
         <v>0.96</v>
       </c>
       <c r="E143">
-        <f t="shared" si="6"/>
+        <f>IF((C143-B143)&gt;3,IF((C143-B143)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F143">
-        <f t="shared" si="7"/>
+        <f>IF((B143-C143)&gt;3,IF((B143-C143)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G143">
-        <f t="shared" si="8"/>
+        <f>E143+F143</f>
         <v>0</v>
       </c>
     </row>
@@ -5207,15 +5784,15 @@
         <v>0.96</v>
       </c>
       <c r="E144">
-        <f t="shared" si="6"/>
+        <f>IF((C144-B144)&gt;3,IF((C144-B144)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F144">
-        <f t="shared" si="7"/>
+        <f>IF((B144-C144)&gt;3,IF((B144-C144)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G144">
-        <f t="shared" si="8"/>
+        <f>E144+F144</f>
         <v>0</v>
       </c>
     </row>
@@ -5233,15 +5810,15 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="E145">
-        <f t="shared" si="6"/>
+        <f>IF((C145-B145)&gt;3,IF((C145-B145)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F145">
-        <f t="shared" si="7"/>
+        <f>IF((B145-C145)&gt;3,IF((B145-C145)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G145">
-        <f t="shared" si="8"/>
+        <f>E145+F145</f>
         <v>0</v>
       </c>
     </row>
@@ -5259,15 +5836,15 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="E146">
-        <f t="shared" si="6"/>
+        <f>IF((C146-B146)&gt;3,IF((C146-B146)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F146">
-        <f t="shared" si="7"/>
+        <f>IF((B146-C146)&gt;3,IF((B146-C146)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G146">
-        <f t="shared" si="8"/>
+        <f>E146+F146</f>
         <v>0</v>
       </c>
     </row>
@@ -5285,15 +5862,15 @@
         <v>0.96899999999999997</v>
       </c>
       <c r="E147">
-        <f t="shared" si="6"/>
+        <f>IF((C147-B147)&gt;3,IF((C147-B147)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F147">
-        <f t="shared" si="7"/>
+        <f>IF((B147-C147)&gt;3,IF((B147-C147)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G147">
-        <f t="shared" si="8"/>
+        <f>E147+F147</f>
         <v>1</v>
       </c>
     </row>
@@ -5311,15 +5888,15 @@
         <v>0.97</v>
       </c>
       <c r="E148">
-        <f t="shared" si="6"/>
+        <f>IF((C148-B148)&gt;3,IF((C148-B148)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F148">
-        <f t="shared" si="7"/>
+        <f>IF((B148-C148)&gt;3,IF((B148-C148)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G148">
-        <f t="shared" si="8"/>
+        <f>E148+F148</f>
         <v>0</v>
       </c>
     </row>
@@ -5337,15 +5914,15 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="E149">
-        <f t="shared" si="6"/>
+        <f>IF((C149-B149)&gt;3,IF((C149-B149)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F149">
-        <f t="shared" si="7"/>
+        <f>IF((B149-C149)&gt;3,IF((B149-C149)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G149">
-        <f t="shared" si="8"/>
+        <f>E149+F149</f>
         <v>0</v>
       </c>
     </row>
@@ -5363,41 +5940,41 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="E150">
-        <f t="shared" si="6"/>
+        <f>IF((C150-B150)&gt;3,IF((C150-B150)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F150">
-        <f t="shared" si="7"/>
+        <f>IF((B150-C150)&gt;3,IF((B150-C150)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G150">
-        <f t="shared" si="8"/>
+        <f>E150+F150</f>
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="3">
         <v>98</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="3">
         <v>100</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="5">
         <v>0.98</v>
       </c>
-      <c r="E151">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <f t="shared" si="8"/>
+      <c r="E151" s="3">
+        <f>IF((C151-B151)&gt;3,IF((C151-B151)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F151" s="3">
+        <f>IF((B151-C151)&gt;3,IF((B151-C151)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G151" s="3">
+        <f>E151+F151</f>
         <v>0</v>
       </c>
     </row>
@@ -5415,15 +5992,15 @@
         <v>0.98</v>
       </c>
       <c r="E152">
-        <f t="shared" si="6"/>
+        <f>IF((C152-B152)&gt;3,IF((C152-B152)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F152">
-        <f t="shared" si="7"/>
+        <f>IF((B152-C152)&gt;3,IF((B152-C152)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G152">
-        <f t="shared" si="8"/>
+        <f>E152+F152</f>
         <v>0</v>
       </c>
     </row>
@@ -5441,15 +6018,15 @@
         <v>0.98</v>
       </c>
       <c r="E153">
-        <f t="shared" si="6"/>
+        <f>IF((C153-B153)&gt;3,IF((C153-B153)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F153">
-        <f t="shared" si="7"/>
+        <f>IF((B153-C153)&gt;3,IF((B153-C153)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G153">
-        <f t="shared" si="8"/>
+        <f>E153+F153</f>
         <v>0</v>
       </c>
     </row>
@@ -5467,15 +6044,15 @@
         <v>0.98</v>
       </c>
       <c r="E154">
-        <f t="shared" si="6"/>
+        <f>IF((C154-B154)&gt;3,IF((C154-B154)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F154">
-        <f t="shared" si="7"/>
+        <f>IF((B154-C154)&gt;3,IF((B154-C154)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G154">
-        <f t="shared" si="8"/>
+        <f>E154+F154</f>
         <v>0</v>
       </c>
     </row>
@@ -5493,15 +6070,15 @@
         <v>0.98</v>
       </c>
       <c r="E155">
-        <f t="shared" si="6"/>
+        <f>IF((C155-B155)&gt;3,IF((C155-B155)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F155">
-        <f t="shared" si="7"/>
+        <f>IF((B155-C155)&gt;3,IF((B155-C155)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G155">
-        <f t="shared" si="8"/>
+        <f>E155+F155</f>
         <v>0</v>
       </c>
     </row>
@@ -5519,15 +6096,15 @@
         <v>0.98</v>
       </c>
       <c r="E156">
-        <f t="shared" si="6"/>
+        <f>IF((C156-B156)&gt;3,IF((C156-B156)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F156">
-        <f t="shared" si="7"/>
+        <f>IF((B156-C156)&gt;3,IF((B156-C156)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G156">
-        <f t="shared" si="8"/>
+        <f>E156+F156</f>
         <v>1</v>
       </c>
     </row>
@@ -5545,15 +6122,15 @@
         <v>0.98</v>
       </c>
       <c r="E157">
-        <f t="shared" si="6"/>
+        <f>IF((C157-B157)&gt;3,IF((C157-B157)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F157">
-        <f t="shared" si="7"/>
+        <f>IF((B157-C157)&gt;3,IF((B157-C157)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G157">
-        <f t="shared" si="8"/>
+        <f>E157+F157</f>
         <v>0</v>
       </c>
     </row>
@@ -5571,15 +6148,15 @@
         <v>0.98</v>
       </c>
       <c r="E158">
-        <f t="shared" si="6"/>
+        <f>IF((C158-B158)&gt;3,IF((C158-B158)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F158">
-        <f t="shared" si="7"/>
+        <f>IF((B158-C158)&gt;3,IF((B158-C158)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G158">
-        <f t="shared" si="8"/>
+        <f>E158+F158</f>
         <v>0</v>
       </c>
     </row>
@@ -5597,41 +6174,41 @@
         <v>0.98</v>
       </c>
       <c r="E159">
-        <f t="shared" si="6"/>
+        <f>IF((C159-B159)&gt;3,IF((C159-B159)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F159">
-        <f t="shared" si="7"/>
+        <f>IF((B159-C159)&gt;3,IF((B159-C159)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G159">
-        <f t="shared" si="8"/>
+        <f>E159+F159</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="3">
         <v>74</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="3">
         <v>75</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="4">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E160">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <f t="shared" si="8"/>
+      <c r="E160" s="3">
+        <f>IF((C160-B160)&gt;3,IF((C160-B160)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F160" s="3">
+        <f>IF((B160-C160)&gt;3,IF((B160-C160)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G160" s="3">
+        <f>E160+F160</f>
         <v>0</v>
       </c>
     </row>
@@ -5649,15 +6226,15 @@
         <v>0.99</v>
       </c>
       <c r="E161">
-        <f t="shared" si="6"/>
+        <f>IF((C161-B161)&gt;3,IF((C161-B161)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F161">
-        <f t="shared" si="7"/>
+        <f>IF((B161-C161)&gt;3,IF((B161-C161)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G161">
-        <f t="shared" si="8"/>
+        <f>E161+F161</f>
         <v>0</v>
       </c>
     </row>
@@ -5675,15 +6252,15 @@
         <v>0.99</v>
       </c>
       <c r="E162">
-        <f t="shared" si="6"/>
+        <f>IF((C162-B162)&gt;3,IF((C162-B162)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F162">
-        <f t="shared" si="7"/>
+        <f>IF((B162-C162)&gt;3,IF((B162-C162)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G162">
-        <f t="shared" si="8"/>
+        <f>E162+F162</f>
         <v>0</v>
       </c>
     </row>
@@ -5701,15 +6278,15 @@
         <v>0.99299999999999999</v>
       </c>
       <c r="E163">
-        <f t="shared" si="6"/>
+        <f>IF((C163-B163)&gt;3,IF((C163-B163)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F163">
-        <f t="shared" si="7"/>
+        <f>IF((B163-C163)&gt;3,IF((B163-C163)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G163">
-        <f t="shared" si="8"/>
+        <f>E163+F163</f>
         <v>0</v>
       </c>
     </row>
@@ -5727,15 +6304,15 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="E164">
-        <f t="shared" si="6"/>
+        <f>IF((C164-B164)&gt;3,IF((C164-B164)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F164">
-        <f t="shared" si="7"/>
+        <f>IF((B164-C164)&gt;3,IF((B164-C164)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G164">
-        <f t="shared" si="8"/>
+        <f>E164+F164</f>
         <v>0</v>
       </c>
     </row>
@@ -5753,15 +6330,15 @@
         <v>0.996</v>
       </c>
       <c r="E165">
-        <f t="shared" si="6"/>
+        <f>IF((C165-B165)&gt;3,IF((C165-B165)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F165">
-        <f t="shared" si="7"/>
+        <f>IF((B165-C165)&gt;3,IF((B165-C165)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G165">
-        <f t="shared" si="8"/>
+        <f>E165+F165</f>
         <v>1</v>
       </c>
     </row>
@@ -5779,15 +6356,15 @@
         <v>0.997</v>
       </c>
       <c r="E166">
-        <f t="shared" si="6"/>
+        <f>IF((C166-B166)&gt;3,IF((C166-B166)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F166">
-        <f t="shared" si="7"/>
+        <f>IF((B166-C166)&gt;3,IF((B166-C166)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G166">
-        <f t="shared" si="8"/>
+        <f>E166+F166</f>
         <v>0</v>
       </c>
     </row>
@@ -5805,15 +6382,15 @@
         <v>0.998</v>
       </c>
       <c r="E167">
-        <f t="shared" si="6"/>
+        <f>IF((C167-B167)&gt;3,IF((C167-B167)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F167">
-        <f t="shared" si="7"/>
+        <f>IF((B167-C167)&gt;3,IF((B167-C167)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G167">
-        <f t="shared" si="8"/>
+        <f>E167+F167</f>
         <v>0</v>
       </c>
     </row>
@@ -5831,15 +6408,15 @@
         <v>1.0029999999999999</v>
       </c>
       <c r="E168">
-        <f t="shared" si="6"/>
+        <f>IF((C168-B168)&gt;3,IF((C168-B168)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F168">
-        <f t="shared" si="7"/>
+        <f>IF((B168-C168)&gt;3,IF((B168-C168)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G168">
-        <f t="shared" si="8"/>
+        <f>E168+F168</f>
         <v>0</v>
       </c>
     </row>
@@ -5857,15 +6434,15 @@
         <v>1.004</v>
       </c>
       <c r="E169">
-        <f t="shared" si="6"/>
+        <f>IF((C169-B169)&gt;3,IF((C169-B169)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F169">
-        <f t="shared" si="7"/>
+        <f>IF((B169-C169)&gt;3,IF((B169-C169)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G169">
-        <f t="shared" si="8"/>
+        <f>E169+F169</f>
         <v>0</v>
       </c>
     </row>
@@ -5883,15 +6460,15 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="E170">
-        <f t="shared" si="6"/>
+        <f>IF((C170-B170)&gt;3,IF((C170-B170)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F170">
-        <f t="shared" si="7"/>
+        <f>IF((B170-C170)&gt;3,IF((B170-C170)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G170">
-        <f t="shared" si="8"/>
+        <f>E170+F170</f>
         <v>0</v>
       </c>
     </row>
@@ -5909,15 +6486,15 @@
         <v>1.006</v>
       </c>
       <c r="E171">
-        <f t="shared" si="6"/>
+        <f>IF((C171-B171)&gt;3,IF((C171-B171)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F171">
-        <f t="shared" si="7"/>
+        <f>IF((B171-C171)&gt;3,IF((B171-C171)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G171">
-        <f t="shared" si="8"/>
+        <f>E171+F171</f>
         <v>0</v>
       </c>
     </row>
@@ -5935,15 +6512,15 @@
         <v>1.01</v>
       </c>
       <c r="E172">
-        <f t="shared" si="6"/>
+        <f>IF((C172-B172)&gt;3,IF((C172-B172)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F172">
-        <f t="shared" si="7"/>
+        <f>IF((B172-C172)&gt;3,IF((B172-C172)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G172">
-        <f t="shared" si="8"/>
+        <f>E172+F172</f>
         <v>0</v>
       </c>
     </row>
@@ -5961,15 +6538,15 @@
         <v>1.02</v>
       </c>
       <c r="E173">
-        <f t="shared" si="6"/>
+        <f>IF((C173-B173)&gt;3,IF((C173-B173)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F173">
-        <f t="shared" si="7"/>
+        <f>IF((B173-C173)&gt;3,IF((B173-C173)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G173">
-        <f t="shared" si="8"/>
+        <f>E173+F173</f>
         <v>0</v>
       </c>
     </row>
@@ -5987,15 +6564,15 @@
         <v>1.02</v>
       </c>
       <c r="E174">
-        <f t="shared" si="6"/>
+        <f>IF((C174-B174)&gt;3,IF((C174-B174)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F174">
-        <f t="shared" si="7"/>
+        <f>IF((B174-C174)&gt;3,IF((B174-C174)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G174">
-        <f t="shared" si="8"/>
+        <f>E174+F174</f>
         <v>0</v>
       </c>
     </row>
@@ -6013,15 +6590,15 @@
         <v>1.02</v>
       </c>
       <c r="E175">
-        <f t="shared" si="6"/>
+        <f>IF((C175-B175)&gt;3,IF((C175-B175)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F175">
-        <f t="shared" si="7"/>
+        <f>IF((B175-C175)&gt;3,IF((B175-C175)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G175">
-        <f t="shared" si="8"/>
+        <f>E175+F175</f>
         <v>0</v>
       </c>
     </row>
@@ -6039,15 +6616,15 @@
         <v>1.02</v>
       </c>
       <c r="E176">
-        <f t="shared" si="6"/>
+        <f>IF((C176-B176)&gt;3,IF((C176-B176)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F176">
-        <f t="shared" si="7"/>
+        <f>IF((B176-C176)&gt;3,IF((B176-C176)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G176">
-        <f t="shared" si="8"/>
+        <f>E176+F176</f>
         <v>0</v>
       </c>
     </row>
@@ -6065,15 +6642,15 @@
         <v>1.022</v>
       </c>
       <c r="E177">
-        <f t="shared" si="6"/>
+        <f>IF((C177-B177)&gt;3,IF((C177-B177)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F177">
-        <f t="shared" si="7"/>
+        <f>IF((B177-C177)&gt;3,IF((B177-C177)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G177">
-        <f t="shared" si="8"/>
+        <f>E177+F177</f>
         <v>0</v>
       </c>
     </row>
@@ -6091,15 +6668,15 @@
         <v>1.0269999999999999</v>
       </c>
       <c r="E178" s="3">
-        <f t="shared" si="6"/>
+        <f>IF((C178-B178)&gt;3,IF((C178-B178)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F178" s="3">
-        <f t="shared" si="7"/>
+        <f>IF((B178-C178)&gt;3,IF((B178-C178)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G178" s="3">
-        <f t="shared" si="8"/>
+        <f>E178+F178</f>
         <v>0</v>
       </c>
     </row>
@@ -6117,15 +6694,15 @@
         <v>1.04</v>
       </c>
       <c r="E179">
-        <f t="shared" si="6"/>
+        <f>IF((C179-B179)&gt;3,IF((C179-B179)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F179">
-        <f t="shared" si="7"/>
+        <f>IF((B179-C179)&gt;3,IF((B179-C179)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G179">
-        <f t="shared" si="8"/>
+        <f>E179+F179</f>
         <v>0</v>
       </c>
     </row>
@@ -6143,15 +6720,15 @@
         <v>1.04</v>
       </c>
       <c r="E180">
-        <f t="shared" si="6"/>
+        <f>IF((C180-B180)&gt;3,IF((C180-B180)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F180">
-        <f t="shared" si="7"/>
+        <f>IF((B180-C180)&gt;3,IF((B180-C180)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G180">
-        <f t="shared" si="8"/>
+        <f>E180+F180</f>
         <v>0</v>
       </c>
     </row>
@@ -6169,15 +6746,15 @@
         <v>1.04</v>
       </c>
       <c r="E181">
-        <f t="shared" si="6"/>
+        <f>IF((C181-B181)&gt;3,IF((C181-B181)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F181">
-        <f t="shared" si="7"/>
+        <f>IF((B181-C181)&gt;3,IF((B181-C181)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G181">
-        <f t="shared" si="8"/>
+        <f>E181+F181</f>
         <v>0</v>
       </c>
     </row>
@@ -6195,15 +6772,15 @@
         <v>1.04</v>
       </c>
       <c r="E182">
-        <f t="shared" si="6"/>
+        <f>IF((C182-B182)&gt;3,IF((C182-B182)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F182">
-        <f t="shared" si="7"/>
+        <f>IF((B182-C182)&gt;3,IF((B182-C182)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G182">
-        <f t="shared" si="8"/>
+        <f>E182+F182</f>
         <v>0</v>
       </c>
     </row>
@@ -6221,15 +6798,15 @@
         <v>1.048</v>
       </c>
       <c r="E183">
-        <f t="shared" si="6"/>
+        <f>IF((C183-B183)&gt;3,IF((C183-B183)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F183">
-        <f t="shared" si="7"/>
+        <f>IF((B183-C183)&gt;3,IF((B183-C183)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G183">
-        <f t="shared" si="8"/>
+        <f>E183+F183</f>
         <v>1</v>
       </c>
     </row>
@@ -6247,15 +6824,15 @@
         <v>1.05</v>
       </c>
       <c r="E184">
-        <f t="shared" si="6"/>
+        <f>IF((C184-B184)&gt;3,IF((C184-B184)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F184">
-        <f t="shared" si="7"/>
+        <f>IF((B184-C184)&gt;3,IF((B184-C184)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G184">
-        <f t="shared" si="8"/>
+        <f>E184+F184</f>
         <v>0</v>
       </c>
     </row>
@@ -6273,15 +6850,15 @@
         <v>1.052</v>
       </c>
       <c r="E185">
-        <f t="shared" si="6"/>
+        <f>IF((C185-B185)&gt;3,IF((C185-B185)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F185">
-        <f t="shared" si="7"/>
+        <f>IF((B185-C185)&gt;3,IF((B185-C185)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G185">
-        <f t="shared" si="8"/>
+        <f>E185+F185</f>
         <v>1</v>
       </c>
     </row>
@@ -6299,41 +6876,41 @@
         <v>1.0640000000000001</v>
       </c>
       <c r="E186">
-        <f t="shared" si="6"/>
+        <f>IF((C186-B186)&gt;3,IF((C186-B186)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F186">
-        <f t="shared" si="7"/>
+        <f>IF((B186-C186)&gt;3,IF((B186-C186)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G186">
-        <f t="shared" si="8"/>
+        <f>E186+F186</f>
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="3">
         <v>110</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="3">
         <v>100</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E187">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F187">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G187">
-        <f t="shared" si="8"/>
+      <c r="E187" s="3">
+        <f>IF((C187-B187)&gt;3,IF((C187-B187)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F187" s="3">
+        <f>IF((B187-C187)&gt;3,IF((B187-C187)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G187" s="3">
+        <f>E187+F187</f>
         <v>1</v>
       </c>
     </row>
@@ -6351,15 +6928,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E188">
-        <f t="shared" si="6"/>
+        <f>IF((C188-B188)&gt;3,IF((C188-B188)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F188">
-        <f t="shared" si="7"/>
+        <f>IF((B188-C188)&gt;3,IF((B188-C188)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G188">
-        <f t="shared" si="8"/>
+        <f>E188+F188</f>
         <v>1</v>
       </c>
     </row>
@@ -6377,15 +6954,15 @@
         <v>1.1020000000000001</v>
       </c>
       <c r="E189">
-        <f t="shared" si="6"/>
+        <f>IF((C189-B189)&gt;3,IF((C189-B189)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F189">
-        <f t="shared" si="7"/>
+        <f>IF((B189-C189)&gt;3,IF((B189-C189)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G189">
-        <f t="shared" si="8"/>
+        <f>E189+F189</f>
         <v>1</v>
       </c>
     </row>
@@ -6403,15 +6980,15 @@
         <v>1.206</v>
       </c>
       <c r="E190">
-        <f t="shared" si="6"/>
+        <f>IF((C190-B190)&gt;3,IF((C190-B190)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F190">
-        <f t="shared" si="7"/>
+        <f>IF((B190-C190)&gt;3,IF((B190-C190)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G190">
-        <f t="shared" si="8"/>
+        <f>E190+F190</f>
         <v>1</v>
       </c>
     </row>
@@ -6429,15 +7006,15 @@
         <v>1.25</v>
       </c>
       <c r="E191">
-        <f t="shared" si="6"/>
+        <f>IF((C191-B191)&gt;3,IF((C191-B191)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F191">
-        <f t="shared" si="7"/>
+        <f>IF((B191-C191)&gt;3,IF((B191-C191)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G191">
-        <f t="shared" si="8"/>
+        <f>E191+F191</f>
         <v>1</v>
       </c>
     </row>
@@ -6455,15 +7032,15 @@
         <v>1.54</v>
       </c>
       <c r="E192">
-        <f t="shared" si="6"/>
+        <f>IF((C192-B192)&gt;3,IF((C192-B192)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F192">
-        <f t="shared" si="7"/>
+        <f>IF((B192-C192)&gt;3,IF((B192-C192)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G192">
-        <f t="shared" si="8"/>
+        <f>E192+F192</f>
         <v>1</v>
       </c>
     </row>
@@ -6481,41 +7058,41 @@
         <v>1.714</v>
       </c>
       <c r="E193">
-        <f t="shared" si="6"/>
+        <f>IF((C193-B193)&gt;3,IF((C193-B193)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F193">
-        <f t="shared" si="7"/>
+        <f>IF((B193-C193)&gt;3,IF((B193-C193)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G193">
-        <f t="shared" si="8"/>
+        <f>E193+F193</f>
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="3">
         <v>86</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="3">
         <v>50</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194" s="5">
         <v>1.72</v>
       </c>
-      <c r="E194">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G194">
-        <f t="shared" si="8"/>
+      <c r="E194" s="3">
+        <f>IF((C194-B194)&gt;3,IF((C194-B194)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F194" s="3">
+        <f>IF((B194-C194)&gt;3,IF((B194-C194)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G194" s="3">
+        <f>E194+F194</f>
         <v>1</v>
       </c>
     </row>
@@ -6533,15 +7110,15 @@
         <v>1.7330000000000001</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E205" si="9">IF((C195-B195)&gt;3,IF((C195-B195)&gt;0,1,0),0)</f>
+        <f>IF((C195-B195)&gt;3,IF((C195-B195)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F205" si="10">IF((B195-C195)&gt;3,IF((B195-C195)&gt;0,1,0),0)</f>
+        <f>IF((B195-C195)&gt;3,IF((B195-C195)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G205" si="11">E195+F195</f>
+        <f>E195+F195</f>
         <v>1</v>
       </c>
     </row>
@@ -6559,15 +7136,15 @@
         <v>1.75</v>
       </c>
       <c r="E196">
-        <f t="shared" si="9"/>
+        <f>IF((C196-B196)&gt;3,IF((C196-B196)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F196">
-        <f t="shared" si="10"/>
+        <f>IF((B196-C196)&gt;3,IF((B196-C196)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G196">
-        <f t="shared" si="11"/>
+        <f>E196+F196</f>
         <v>1</v>
       </c>
     </row>
@@ -6585,15 +7162,15 @@
         <v>1.8</v>
       </c>
       <c r="E197">
-        <f t="shared" si="9"/>
+        <f>IF((C197-B197)&gt;3,IF((C197-B197)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F197">
-        <f t="shared" si="10"/>
+        <f>IF((B197-C197)&gt;3,IF((B197-C197)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G197">
-        <f t="shared" si="11"/>
+        <f>E197+F197</f>
         <v>1</v>
       </c>
     </row>
@@ -6611,15 +7188,15 @@
         <v>1.8</v>
       </c>
       <c r="E198">
-        <f t="shared" si="9"/>
+        <f>IF((C198-B198)&gt;3,IF((C198-B198)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F198">
-        <f t="shared" si="10"/>
+        <f>IF((B198-C198)&gt;3,IF((B198-C198)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G198">
-        <f t="shared" si="11"/>
+        <f>E198+F198</f>
         <v>1</v>
       </c>
     </row>
@@ -6637,15 +7214,15 @@
         <v>1.8460000000000001</v>
       </c>
       <c r="E199">
-        <f t="shared" si="9"/>
+        <f>IF((C199-B199)&gt;3,IF((C199-B199)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F199">
-        <f t="shared" si="10"/>
+        <f>IF((B199-C199)&gt;3,IF((B199-C199)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G199">
-        <f t="shared" si="11"/>
+        <f>E199+F199</f>
         <v>1</v>
       </c>
     </row>
@@ -6663,15 +7240,15 @@
         <v>1.9330000000000001</v>
       </c>
       <c r="E200">
-        <f t="shared" si="9"/>
+        <f>IF((C200-B200)&gt;3,IF((C200-B200)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F200">
-        <f t="shared" si="10"/>
+        <f>IF((B200-C200)&gt;3,IF((B200-C200)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G200">
-        <f t="shared" si="11"/>
+        <f>E200+F200</f>
         <v>1</v>
       </c>
     </row>
@@ -6689,41 +7266,41 @@
         <v>1.9330000000000001</v>
       </c>
       <c r="E201">
-        <f t="shared" si="9"/>
+        <f>IF((C201-B201)&gt;3,IF((C201-B201)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F201">
-        <f t="shared" si="10"/>
+        <f>IF((B201-C201)&gt;3,IF((B201-C201)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G201">
-        <f t="shared" si="11"/>
+        <f>E201+F201</f>
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="3">
         <v>200</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="3">
         <v>100</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202" s="5">
         <v>2</v>
       </c>
-      <c r="E202">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F202">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="G202">
-        <f t="shared" si="11"/>
+      <c r="E202" s="3">
+        <f>IF((C202-B202)&gt;3,IF((C202-B202)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F202" s="3">
+        <f>IF((B202-C202)&gt;3,IF((B202-C202)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G202" s="3">
+        <f>E202+F202</f>
         <v>1</v>
       </c>
     </row>
@@ -6741,15 +7318,15 @@
         <v>2.411</v>
       </c>
       <c r="E203">
-        <f t="shared" si="9"/>
+        <f>IF((C203-B203)&gt;3,IF((C203-B203)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F203">
-        <f t="shared" si="10"/>
+        <f>IF((B203-C203)&gt;3,IF((B203-C203)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G203">
-        <f t="shared" si="11"/>
+        <f>E203+F203</f>
         <v>1</v>
       </c>
     </row>
@@ -6767,45 +7344,50 @@
         <v>3.5</v>
       </c>
       <c r="E204">
-        <f t="shared" si="9"/>
+        <f>IF((C204-B204)&gt;3,IF((C204-B204)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F204">
-        <f t="shared" si="10"/>
+        <f>IF((B204-C204)&gt;3,IF((B204-C204)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G204">
-        <f t="shared" si="11"/>
+        <f>E204+F204</f>
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="3">
         <v>55</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="3">
         <v>10</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205" s="5">
         <v>5.5</v>
       </c>
-      <c r="E205">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F205">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="G205">
-        <f t="shared" si="11"/>
+      <c r="E205" s="3">
+        <f>IF((C205-B205)&gt;3,IF((C205-B205)&gt;0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F205" s="3">
+        <f>IF((B205-C205)&gt;3,IF((B205-C205)&gt;0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G205" s="3">
+        <f>E205+F205</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G205">
+    <sortState ref="A2:G205">
+      <sortCondition ref="D2:D205"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:D205">
     <sortCondition ref="D2:D205"/>
   </sortState>

--- a/weird.xlsx
+++ b/weird.xlsx
@@ -18,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">weird!$A$1:$G$205</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1477,7 +1478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1517,15 +1520,15 @@
         <v>0.17</v>
       </c>
       <c r="E2" s="3">
-        <f>IF((C2-B2)&gt;3,IF((C2-B2)&gt;0,1,0),0)</f>
+        <f t="shared" ref="E2:E65" si="0">IF((C2-B2)&gt;3,IF((C2-B2)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <f>IF((B2-C2)&gt;3,IF((B2-C2)&gt;0,1,0),0)</f>
+        <f t="shared" ref="F2:F65" si="1">IF((B2-C2)&gt;3,IF((B2-C2)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <f>E2+F2</f>
+        <f t="shared" ref="G2:G65" si="2">E2+F2</f>
         <v>1</v>
       </c>
     </row>
@@ -1543,15 +1546,15 @@
         <v>0.22</v>
       </c>
       <c r="E3">
-        <f>IF((C3-B3)&gt;3,IF((C3-B3)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F3">
-        <f>IF((B3-C3)&gt;3,IF((B3-C3)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>E3+F3</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1569,15 +1572,15 @@
         <v>0.22</v>
       </c>
       <c r="E4">
-        <f>IF((C4-B4)&gt;3,IF((C4-B4)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4">
-        <f>IF((B4-C4)&gt;3,IF((B4-C4)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>E4+F4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1595,15 +1598,15 @@
         <v>0.25</v>
       </c>
       <c r="E5" s="3">
-        <f>IF((C5-B5)&gt;3,IF((C5-B5)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <f>IF((B5-C5)&gt;3,IF((B5-C5)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <f>E5+F5</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1621,15 +1624,15 @@
         <v>0.253</v>
       </c>
       <c r="E6">
-        <f>IF((C6-B6)&gt;3,IF((C6-B6)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>IF((B6-C6)&gt;3,IF((B6-C6)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>E6+F6</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1647,15 +1650,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E7">
-        <f>IF((C7-B7)&gt;3,IF((C7-B7)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7">
-        <f>IF((B7-C7)&gt;3,IF((B7-C7)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>E7+F7</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1673,15 +1676,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E8">
-        <f>IF((C8-B8)&gt;3,IF((C8-B8)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8">
-        <f>IF((B8-C8)&gt;3,IF((B8-C8)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>E8+F8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1699,15 +1702,15 @@
         <v>0.3</v>
       </c>
       <c r="E9">
-        <f>IF((C9-B9)&gt;3,IF((C9-B9)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9">
-        <f>IF((B9-C9)&gt;3,IF((B9-C9)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>E9+F9</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1725,15 +1728,15 @@
         <v>0.36</v>
       </c>
       <c r="E10" s="3">
-        <f>IF((C10-B10)&gt;3,IF((C10-B10)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <f>IF((B10-C10)&gt;3,IF((B10-C10)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <f>E10+F10</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1751,15 +1754,15 @@
         <v>0.37</v>
       </c>
       <c r="E11">
-        <f>IF((C11-B11)&gt;3,IF((C11-B11)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11">
-        <f>IF((B11-C11)&gt;3,IF((B11-C11)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>E11+F11</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1777,15 +1780,15 @@
         <v>0.38</v>
       </c>
       <c r="E12">
-        <f>IF((C12-B12)&gt;3,IF((C12-B12)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12">
-        <f>IF((B12-C12)&gt;3,IF((B12-C12)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>E12+F12</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1803,15 +1806,15 @@
         <v>0.38</v>
       </c>
       <c r="E13">
-        <f>IF((C13-B13)&gt;3,IF((C13-B13)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13">
-        <f>IF((B13-C13)&gt;3,IF((B13-C13)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>E13+F13</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1829,15 +1832,15 @@
         <v>0.4</v>
       </c>
       <c r="E14">
-        <f>IF((C14-B14)&gt;3,IF((C14-B14)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <f>IF((B14-C14)&gt;3,IF((B14-C14)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>E14+F14</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1855,15 +1858,15 @@
         <v>0.4</v>
       </c>
       <c r="E15">
-        <f>IF((C15-B15)&gt;3,IF((C15-B15)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15">
-        <f>IF((B15-C15)&gt;3,IF((B15-C15)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>E15+F15</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1881,15 +1884,15 @@
         <v>0.42</v>
       </c>
       <c r="E16">
-        <f>IF((C16-B16)&gt;3,IF((C16-B16)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16">
-        <f>IF((B16-C16)&gt;3,IF((B16-C16)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>E16+F16</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1907,15 +1910,15 @@
         <v>0.43</v>
       </c>
       <c r="E17">
-        <f>IF((C17-B17)&gt;3,IF((C17-B17)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17">
-        <f>IF((B17-C17)&gt;3,IF((B17-C17)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>E17+F17</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1933,15 +1936,15 @@
         <v>0.44</v>
       </c>
       <c r="E18" s="3">
-        <f>IF((C18-B18)&gt;3,IF((C18-B18)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18" s="3">
-        <f>IF((B18-C18)&gt;3,IF((B18-C18)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <f>E18+F18</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1959,15 +1962,15 @@
         <v>0.45</v>
       </c>
       <c r="E19">
-        <f>IF((C19-B19)&gt;3,IF((C19-B19)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19">
-        <f>IF((B19-C19)&gt;3,IF((B19-C19)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>E19+F19</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1985,15 +1988,15 @@
         <v>0.48</v>
       </c>
       <c r="E20">
-        <f>IF((C20-B20)&gt;3,IF((C20-B20)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20">
-        <f>IF((B20-C20)&gt;3,IF((B20-C20)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>E20+F20</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2011,15 +2014,15 @@
         <v>0.49</v>
       </c>
       <c r="E21" s="3">
-        <f>IF((C21-B21)&gt;3,IF((C21-B21)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F21" s="3">
-        <f>IF((B21-C21)&gt;3,IF((B21-C21)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <f>E21+F21</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2037,15 +2040,15 @@
         <v>0.5</v>
       </c>
       <c r="E22">
-        <f>IF((C22-B22)&gt;3,IF((C22-B22)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22">
-        <f>IF((B22-C22)&gt;3,IF((B22-C22)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>E22+F22</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2063,15 +2066,15 @@
         <v>0.5</v>
       </c>
       <c r="E23">
-        <f>IF((C23-B23)&gt;3,IF((C23-B23)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23">
-        <f>IF((B23-C23)&gt;3,IF((B23-C23)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>E23+F23</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2089,15 +2092,15 @@
         <v>0.51</v>
       </c>
       <c r="E24">
-        <f>IF((C24-B24)&gt;3,IF((C24-B24)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24">
-        <f>IF((B24-C24)&gt;3,IF((B24-C24)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>E24+F24</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2115,15 +2118,15 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="E25">
-        <f>IF((C25-B25)&gt;3,IF((C25-B25)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25">
-        <f>IF((B25-C25)&gt;3,IF((B25-C25)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>E25+F25</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H25" s="6"/>
@@ -2164,15 +2167,15 @@
         <v>0.52</v>
       </c>
       <c r="E26">
-        <f>IF((C26-B26)&gt;3,IF((C26-B26)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26">
-        <f>IF((B26-C26)&gt;3,IF((B26-C26)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>E26+F26</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H26" s="6"/>
@@ -2213,15 +2216,15 @@
         <v>0.52</v>
       </c>
       <c r="E27" s="3">
-        <f>IF((C27-B27)&gt;3,IF((C27-B27)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27" s="3">
-        <f>IF((B27-C27)&gt;3,IF((B27-C27)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <f>E27+F27</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H27" s="6"/>
@@ -2262,15 +2265,15 @@
         <v>0.52</v>
       </c>
       <c r="E28">
-        <f>IF((C28-B28)&gt;3,IF((C28-B28)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28">
-        <f>IF((B28-C28)&gt;3,IF((B28-C28)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>E28+F28</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H28" s="6"/>
@@ -2311,15 +2314,15 @@
         <v>0.52</v>
       </c>
       <c r="E29">
-        <f>IF((C29-B29)&gt;3,IF((C29-B29)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29">
-        <f>IF((B29-C29)&gt;3,IF((B29-C29)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f>E29+F29</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H29" s="6"/>
@@ -2360,15 +2363,15 @@
         <v>0.52</v>
       </c>
       <c r="E30">
-        <f>IF((C30-B30)&gt;3,IF((C30-B30)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F30">
-        <f>IF((B30-C30)&gt;3,IF((B30-C30)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f>E30+F30</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H30" s="6"/>
@@ -2396,53 +2399,30 @@
       <c r="AD30" s="6"/>
     </row>
     <row r="31" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>53</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>100</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="5">
         <v>0.53</v>
       </c>
-      <c r="E31">
-        <f>IF((C31-B31)&gt;3,IF((C31-B31)&gt;0,1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <f>IF((B31-C31)&gt;3,IF((B31-C31)&gt;0,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f>E31+F31</f>
-        <v>1</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -2458,15 +2438,15 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="E32" s="3">
-        <f>IF((C32-B32)&gt;3,IF((C32-B32)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32" s="3">
-        <f>IF((B32-C32)&gt;3,IF((B32-C32)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <f>E32+F32</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H32" s="6"/>
@@ -2507,15 +2487,15 @@
         <v>0.54</v>
       </c>
       <c r="E33">
-        <f>IF((C33-B33)&gt;3,IF((C33-B33)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F33">
-        <f>IF((B33-C33)&gt;3,IF((B33-C33)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>E33+F33</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H33" s="6"/>
@@ -2556,15 +2536,15 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E34">
-        <f>IF((C34-B34)&gt;3,IF((C34-B34)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F34">
-        <f>IF((B34-C34)&gt;3,IF((B34-C34)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f>E34+F34</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H34" s="6"/>
@@ -2605,15 +2585,15 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E35">
-        <f>IF((C35-B35)&gt;3,IF((C35-B35)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F35">
-        <f>IF((B35-C35)&gt;3,IF((B35-C35)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G35">
-        <f>E35+F35</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H35" s="6"/>
@@ -2641,53 +2621,30 @@
       <c r="AD35" s="6"/>
     </row>
     <row r="36" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>20</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E36">
-        <f>IF((C36-B36)&gt;3,IF((C36-B36)&gt;0,1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <f>IF((B36-C36)&gt;3,IF((B36-C36)&gt;0,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <f>E36+F36</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -2703,15 +2660,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="E37" s="3">
-        <f>IF((C37-B37)&gt;3,IF((C37-B37)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F37" s="3">
-        <f>IF((B37-C37)&gt;3,IF((B37-C37)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <f>E37+F37</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H37" s="6"/>
@@ -2752,15 +2709,15 @@
         <v>0.56599999999999995</v>
       </c>
       <c r="E38">
-        <f>IF((C38-B38)&gt;3,IF((C38-B38)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F38">
-        <f>IF((B38-C38)&gt;3,IF((B38-C38)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G38">
-        <f>E38+F38</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H38" s="6"/>
@@ -2801,15 +2758,15 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E39">
-        <f>IF((C39-B39)&gt;3,IF((C39-B39)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F39">
-        <f>IF((B39-C39)&gt;3,IF((B39-C39)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39">
-        <f>E39+F39</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H39" s="6"/>
@@ -2850,15 +2807,15 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E40">
-        <f>IF((C40-B40)&gt;3,IF((C40-B40)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F40">
-        <f>IF((B40-C40)&gt;3,IF((B40-C40)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G40">
-        <f>E40+F40</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H40" s="6"/>
@@ -2899,15 +2856,15 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E41">
-        <f>IF((C41-B41)&gt;3,IF((C41-B41)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F41">
-        <f>IF((B41-C41)&gt;3,IF((B41-C41)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G41">
-        <f>E41+F41</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H41" s="6"/>
@@ -2948,15 +2905,15 @@
         <v>0.6</v>
       </c>
       <c r="E42">
-        <f>IF((C42-B42)&gt;3,IF((C42-B42)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F42">
-        <f>IF((B42-C42)&gt;3,IF((B42-C42)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G42">
-        <f>E42+F42</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H42" s="6"/>
@@ -2997,15 +2954,15 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="E43">
-        <f>IF((C43-B43)&gt;3,IF((C43-B43)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F43">
-        <f>IF((B43-C43)&gt;3,IF((B43-C43)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f>E43+F43</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H43" s="6"/>
@@ -3046,15 +3003,15 @@
         <v>0.62</v>
       </c>
       <c r="E44">
-        <f>IF((C44-B44)&gt;3,IF((C44-B44)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F44">
-        <f>IF((B44-C44)&gt;3,IF((B44-C44)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G44">
-        <f>E44+F44</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H44" s="6"/>
@@ -3095,15 +3052,15 @@
         <v>0.62</v>
       </c>
       <c r="E45">
-        <f>IF((C45-B45)&gt;3,IF((C45-B45)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F45">
-        <f>IF((B45-C45)&gt;3,IF((B45-C45)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <f>E45+F45</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H45" s="6"/>
@@ -3144,15 +3101,15 @@
         <v>0.64</v>
       </c>
       <c r="E46">
-        <f>IF((C46-B46)&gt;3,IF((C46-B46)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F46">
-        <f>IF((B46-C46)&gt;3,IF((B46-C46)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G46">
-        <f>E46+F46</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H46" s="6"/>
@@ -3193,15 +3150,15 @@
         <v>0.64</v>
       </c>
       <c r="E47">
-        <f>IF((C47-B47)&gt;3,IF((C47-B47)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F47">
-        <f>IF((B47-C47)&gt;3,IF((B47-C47)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G47">
-        <f>E47+F47</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H47" s="6"/>
@@ -3242,15 +3199,15 @@
         <v>0.64</v>
       </c>
       <c r="E48">
-        <f>IF((C48-B48)&gt;3,IF((C48-B48)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F48">
-        <f>IF((B48-C48)&gt;3,IF((B48-C48)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G48">
-        <f>E48+F48</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H48" s="6"/>
@@ -3291,15 +3248,15 @@
         <v>0.64</v>
       </c>
       <c r="E49">
-        <f>IF((C49-B49)&gt;3,IF((C49-B49)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F49">
-        <f>IF((B49-C49)&gt;3,IF((B49-C49)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G49">
-        <f>E49+F49</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H49" s="6"/>
@@ -3340,15 +3297,15 @@
         <v>0.65</v>
       </c>
       <c r="E50">
-        <f>IF((C50-B50)&gt;3,IF((C50-B50)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F50">
-        <f>IF((B50-C50)&gt;3,IF((B50-C50)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G50">
-        <f>E50+F50</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3366,15 +3323,15 @@
         <v>0.65</v>
       </c>
       <c r="E51">
-        <f>IF((C51-B51)&gt;3,IF((C51-B51)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F51">
-        <f>IF((B51-C51)&gt;3,IF((B51-C51)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G51">
-        <f>E51+F51</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3392,15 +3349,15 @@
         <v>0.65</v>
       </c>
       <c r="E52">
-        <f>IF((C52-B52)&gt;3,IF((C52-B52)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F52">
-        <f>IF((B52-C52)&gt;3,IF((B52-C52)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G52">
-        <f>E52+F52</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3418,15 +3375,15 @@
         <v>0.66</v>
       </c>
       <c r="E53">
-        <f>IF((C53-B53)&gt;3,IF((C53-B53)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F53">
-        <f>IF((B53-C53)&gt;3,IF((B53-C53)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f>E53+F53</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3444,15 +3401,15 @@
         <v>0.67</v>
       </c>
       <c r="E54">
-        <f>IF((C54-B54)&gt;3,IF((C54-B54)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F54">
-        <f>IF((B54-C54)&gt;3,IF((B54-C54)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G54">
-        <f>E54+F54</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3470,15 +3427,15 @@
         <v>0.67</v>
       </c>
       <c r="E55">
-        <f>IF((C55-B55)&gt;3,IF((C55-B55)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F55">
-        <f>IF((B55-C55)&gt;3,IF((B55-C55)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G55">
-        <f>E55+F55</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3496,15 +3453,15 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="E56">
-        <f>IF((C56-B56)&gt;3,IF((C56-B56)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F56">
-        <f>IF((B56-C56)&gt;3,IF((B56-C56)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G56">
-        <f>E56+F56</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3522,15 +3479,15 @@
         <v>0.68</v>
       </c>
       <c r="E57">
-        <f>IF((C57-B57)&gt;3,IF((C57-B57)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F57">
-        <f>IF((B57-C57)&gt;3,IF((B57-C57)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G57">
-        <f>E57+F57</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3548,15 +3505,15 @@
         <v>0.68</v>
       </c>
       <c r="E58">
-        <f>IF((C58-B58)&gt;3,IF((C58-B58)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F58">
-        <f>IF((B58-C58)&gt;3,IF((B58-C58)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G58">
-        <f>E58+F58</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3574,15 +3531,15 @@
         <v>0.68</v>
       </c>
       <c r="E59">
-        <f>IF((C59-B59)&gt;3,IF((C59-B59)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F59">
-        <f>IF((B59-C59)&gt;3,IF((B59-C59)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G59">
-        <f>E59+F59</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3600,15 +3557,15 @@
         <v>0.68</v>
       </c>
       <c r="E60">
-        <f>IF((C60-B60)&gt;3,IF((C60-B60)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F60">
-        <f>IF((B60-C60)&gt;3,IF((B60-C60)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G60">
-        <f>E60+F60</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3626,15 +3583,15 @@
         <v>0.7</v>
       </c>
       <c r="E61" s="3">
-        <f>IF((C61-B61)&gt;3,IF((C61-B61)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <f>IF((B61-C61)&gt;3,IF((B61-C61)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <f>E61+F61</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3652,15 +3609,15 @@
         <v>0.7</v>
       </c>
       <c r="E62">
-        <f>IF((C62-B62)&gt;3,IF((C62-B62)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F62">
-        <f>IF((B62-C62)&gt;3,IF((B62-C62)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G62">
-        <f>E62+F62</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3678,15 +3635,15 @@
         <v>0.71</v>
       </c>
       <c r="E63">
-        <f>IF((C63-B63)&gt;3,IF((C63-B63)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F63">
-        <f>IF((B63-C63)&gt;3,IF((B63-C63)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G63">
-        <f>E63+F63</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3704,15 +3661,15 @@
         <v>0.72</v>
       </c>
       <c r="E64">
-        <f>IF((C64-B64)&gt;3,IF((C64-B64)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F64">
-        <f>IF((B64-C64)&gt;3,IF((B64-C64)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G64">
-        <f>E64+F64</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3730,15 +3687,15 @@
         <v>0.72</v>
       </c>
       <c r="E65">
-        <f>IF((C65-B65)&gt;3,IF((C65-B65)&gt;0,1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F65">
-        <f>IF((B65-C65)&gt;3,IF((B65-C65)&gt;0,1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G65">
-        <f>E65+F65</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3756,15 +3713,15 @@
         <v>0.72</v>
       </c>
       <c r="E66">
-        <f>IF((C66-B66)&gt;3,IF((C66-B66)&gt;0,1,0),0)</f>
+        <f t="shared" ref="E66:E129" si="3">IF((C66-B66)&gt;3,IF((C66-B66)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F66">
-        <f>IF((B66-C66)&gt;3,IF((B66-C66)&gt;0,1,0),0)</f>
+        <f t="shared" ref="F66:F129" si="4">IF((B66-C66)&gt;3,IF((B66-C66)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G66">
-        <f>E66+F66</f>
+        <f t="shared" ref="G66:G129" si="5">E66+F66</f>
         <v>1</v>
       </c>
     </row>
@@ -3782,15 +3739,15 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="E67">
-        <f>IF((C67-B67)&gt;3,IF((C67-B67)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F67">
-        <f>IF((B67-C67)&gt;3,IF((B67-C67)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G67">
-        <f>E67+F67</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3808,15 +3765,15 @@
         <v>0.74</v>
       </c>
       <c r="E68">
-        <f>IF((C68-B68)&gt;3,IF((C68-B68)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F68">
-        <f>IF((B68-C68)&gt;3,IF((B68-C68)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G68">
-        <f>E68+F68</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3834,15 +3791,15 @@
         <v>0.74</v>
       </c>
       <c r="E69">
-        <f>IF((C69-B69)&gt;3,IF((C69-B69)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F69">
-        <f>IF((B69-C69)&gt;3,IF((B69-C69)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G69">
-        <f>E69+F69</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3860,15 +3817,15 @@
         <v>0.75</v>
       </c>
       <c r="E70">
-        <f>IF((C70-B70)&gt;3,IF((C70-B70)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F70">
-        <f>IF((B70-C70)&gt;3,IF((B70-C70)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f>E70+F70</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3886,15 +3843,15 @@
         <v>0.75</v>
       </c>
       <c r="E71">
-        <f>IF((C71-B71)&gt;3,IF((C71-B71)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F71">
-        <f>IF((B71-C71)&gt;3,IF((B71-C71)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G71">
-        <f>E71+F71</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3912,15 +3869,15 @@
         <v>0.75</v>
       </c>
       <c r="E72">
-        <f>IF((C72-B72)&gt;3,IF((C72-B72)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F72">
-        <f>IF((B72-C72)&gt;3,IF((B72-C72)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G72">
-        <f>E72+F72</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3938,15 +3895,15 @@
         <v>0.75</v>
       </c>
       <c r="E73">
-        <f>IF((C73-B73)&gt;3,IF((C73-B73)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F73">
-        <f>IF((B73-C73)&gt;3,IF((B73-C73)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f>E73+F73</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3964,15 +3921,15 @@
         <v>0.76</v>
       </c>
       <c r="E74" s="3">
-        <f>IF((C74-B74)&gt;3,IF((C74-B74)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F74" s="3">
-        <f>IF((B74-C74)&gt;3,IF((B74-C74)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G74" s="3">
-        <f>E74+F74</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3990,15 +3947,15 @@
         <v>0.76</v>
       </c>
       <c r="E75" s="3">
-        <f>IF((C75-B75)&gt;3,IF((C75-B75)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F75" s="3">
-        <f>IF((B75-C75)&gt;3,IF((B75-C75)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G75" s="3">
-        <f>E75+F75</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4016,15 +3973,15 @@
         <v>0.76</v>
       </c>
       <c r="E76">
-        <f>IF((C76-B76)&gt;3,IF((C76-B76)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F76">
-        <f>IF((B76-C76)&gt;3,IF((B76-C76)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G76">
-        <f>E76+F76</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4042,15 +3999,15 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="E77">
-        <f>IF((C77-B77)&gt;3,IF((C77-B77)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F77">
-        <f>IF((B77-C77)&gt;3,IF((B77-C77)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G77">
-        <f>E77+F77</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4068,15 +4025,15 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="E78">
-        <f>IF((C78-B78)&gt;3,IF((C78-B78)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F78">
-        <f>IF((B78-C78)&gt;3,IF((B78-C78)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G78">
-        <f>E78+F78</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4094,15 +4051,15 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="E79">
-        <f>IF((C79-B79)&gt;3,IF((C79-B79)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F79">
-        <f>IF((B79-C79)&gt;3,IF((B79-C79)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G79">
-        <f>E79+F79</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4120,15 +4077,15 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="E80">
-        <f>IF((C80-B80)&gt;3,IF((C80-B80)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F80">
-        <f>IF((B80-C80)&gt;3,IF((B80-C80)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f>E80+F80</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4146,15 +4103,15 @@
         <v>0.77</v>
       </c>
       <c r="E81" s="3">
-        <f>IF((C81-B81)&gt;3,IF((C81-B81)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F81" s="3">
-        <f>IF((B81-C81)&gt;3,IF((B81-C81)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <f>E81+F81</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4172,15 +4129,15 @@
         <v>0.77</v>
       </c>
       <c r="E82" s="3">
-        <f>IF((C82-B82)&gt;3,IF((C82-B82)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F82" s="3">
-        <f>IF((B82-C82)&gt;3,IF((B82-C82)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G82" s="3">
-        <f>E82+F82</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4198,15 +4155,15 @@
         <v>0.77</v>
       </c>
       <c r="E83">
-        <f>IF((C83-B83)&gt;3,IF((C83-B83)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F83">
-        <f>IF((B83-C83)&gt;3,IF((B83-C83)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G83">
-        <f>E83+F83</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4224,15 +4181,15 @@
         <v>0.78</v>
       </c>
       <c r="E84">
-        <f>IF((C84-B84)&gt;3,IF((C84-B84)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F84">
-        <f>IF((B84-C84)&gt;3,IF((B84-C84)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G84">
-        <f>E84+F84</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4250,15 +4207,15 @@
         <v>0.78</v>
       </c>
       <c r="E85">
-        <f>IF((C85-B85)&gt;3,IF((C85-B85)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F85">
-        <f>IF((B85-C85)&gt;3,IF((B85-C85)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G85">
-        <f>E85+F85</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4276,15 +4233,15 @@
         <v>0.78</v>
       </c>
       <c r="E86">
-        <f>IF((C86-B86)&gt;3,IF((C86-B86)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F86">
-        <f>IF((B86-C86)&gt;3,IF((B86-C86)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G86">
-        <f>E86+F86</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4302,15 +4259,15 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="E87">
-        <f>IF((C87-B87)&gt;3,IF((C87-B87)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F87">
-        <f>IF((B87-C87)&gt;3,IF((B87-C87)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G87">
-        <f>E87+F87</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4328,15 +4285,15 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="E88">
-        <f>IF((C88-B88)&gt;3,IF((C88-B88)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F88">
-        <f>IF((B88-C88)&gt;3,IF((B88-C88)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G88">
-        <f>E88+F88</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4354,15 +4311,15 @@
         <v>0.79</v>
       </c>
       <c r="E89">
-        <f>IF((C89-B89)&gt;3,IF((C89-B89)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F89">
-        <f>IF((B89-C89)&gt;3,IF((B89-C89)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G89">
-        <f>E89+F89</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4380,15 +4337,15 @@
         <v>0.79</v>
       </c>
       <c r="E90">
-        <f>IF((C90-B90)&gt;3,IF((C90-B90)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F90">
-        <f>IF((B90-C90)&gt;3,IF((B90-C90)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G90">
-        <f>E90+F90</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4406,15 +4363,15 @@
         <v>0.79</v>
       </c>
       <c r="E91">
-        <f>IF((C91-B91)&gt;3,IF((C91-B91)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F91">
-        <f>IF((B91-C91)&gt;3,IF((B91-C91)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G91">
-        <f>E91+F91</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4432,15 +4389,15 @@
         <v>0.8</v>
       </c>
       <c r="E92">
-        <f>IF((C92-B92)&gt;3,IF((C92-B92)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F92">
-        <f>IF((B92-C92)&gt;3,IF((B92-C92)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G92">
-        <f>E92+F92</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4458,15 +4415,15 @@
         <v>0.82</v>
       </c>
       <c r="E93" s="3">
-        <f>IF((C93-B93)&gt;3,IF((C93-B93)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F93" s="3">
-        <f>IF((B93-C93)&gt;3,IF((B93-C93)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G93" s="3">
-        <f>E93+F93</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4484,15 +4441,15 @@
         <v>0.82</v>
       </c>
       <c r="E94">
-        <f>IF((C94-B94)&gt;3,IF((C94-B94)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F94">
-        <f>IF((B94-C94)&gt;3,IF((B94-C94)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f>E94+F94</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4510,15 +4467,15 @@
         <v>0.82</v>
       </c>
       <c r="E95">
-        <f>IF((C95-B95)&gt;3,IF((C95-B95)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F95">
-        <f>IF((B95-C95)&gt;3,IF((B95-C95)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G95">
-        <f>E95+F95</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4536,15 +4493,15 @@
         <v>0.82</v>
       </c>
       <c r="E96">
-        <f>IF((C96-B96)&gt;3,IF((C96-B96)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F96">
-        <f>IF((B96-C96)&gt;3,IF((B96-C96)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G96">
-        <f>E96+F96</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4562,15 +4519,15 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="E97">
-        <f>IF((C97-B97)&gt;3,IF((C97-B97)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F97">
-        <f>IF((B97-C97)&gt;3,IF((B97-C97)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G97">
-        <f>E97+F97</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4588,15 +4545,15 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="E98">
-        <f>IF((C98-B98)&gt;3,IF((C98-B98)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F98">
-        <f>IF((B98-C98)&gt;3,IF((B98-C98)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G98">
-        <f>E98+F98</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4614,15 +4571,15 @@
         <v>0.84</v>
       </c>
       <c r="E99">
-        <f>IF((C99-B99)&gt;3,IF((C99-B99)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F99">
-        <f>IF((B99-C99)&gt;3,IF((B99-C99)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G99">
-        <f>E99+F99</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4640,15 +4597,15 @@
         <v>0.84</v>
       </c>
       <c r="E100">
-        <f>IF((C100-B100)&gt;3,IF((C100-B100)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F100">
-        <f>IF((B100-C100)&gt;3,IF((B100-C100)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G100">
-        <f>E100+F100</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4666,15 +4623,15 @@
         <v>0.84</v>
       </c>
       <c r="E101">
-        <f>IF((C101-B101)&gt;3,IF((C101-B101)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F101">
-        <f>IF((B101-C101)&gt;3,IF((B101-C101)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G101">
-        <f>E101+F101</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4692,15 +4649,15 @@
         <v>0.85</v>
       </c>
       <c r="E102">
-        <f>IF((C102-B102)&gt;3,IF((C102-B102)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F102">
-        <f>IF((B102-C102)&gt;3,IF((B102-C102)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G102">
-        <f>E102+F102</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4718,15 +4675,15 @@
         <v>0.85</v>
       </c>
       <c r="E103">
-        <f>IF((C103-B103)&gt;3,IF((C103-B103)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F103">
-        <f>IF((B103-C103)&gt;3,IF((B103-C103)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G103">
-        <f>E103+F103</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4744,15 +4701,15 @@
         <v>0.85</v>
       </c>
       <c r="E104">
-        <f>IF((C104-B104)&gt;3,IF((C104-B104)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F104">
-        <f>IF((B104-C104)&gt;3,IF((B104-C104)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G104">
-        <f>E104+F104</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4770,15 +4727,15 @@
         <v>0.86</v>
       </c>
       <c r="E105">
-        <f>IF((C105-B105)&gt;3,IF((C105-B105)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F105">
-        <f>IF((B105-C105)&gt;3,IF((B105-C105)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G105">
-        <f>E105+F105</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4796,15 +4753,15 @@
         <v>0.86</v>
       </c>
       <c r="E106">
-        <f>IF((C106-B106)&gt;3,IF((C106-B106)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F106">
-        <f>IF((B106-C106)&gt;3,IF((B106-C106)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G106">
-        <f>E106+F106</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4822,15 +4779,15 @@
         <v>0.86</v>
       </c>
       <c r="E107">
-        <f>IF((C107-B107)&gt;3,IF((C107-B107)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F107">
-        <f>IF((B107-C107)&gt;3,IF((B107-C107)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G107">
-        <f>E107+F107</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4848,15 +4805,15 @@
         <v>0.86</v>
       </c>
       <c r="E108">
-        <f>IF((C108-B108)&gt;3,IF((C108-B108)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F108">
-        <f>IF((B108-C108)&gt;3,IF((B108-C108)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G108">
-        <f>E108+F108</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4874,15 +4831,15 @@
         <v>0.86</v>
       </c>
       <c r="E109">
-        <f>IF((C109-B109)&gt;3,IF((C109-B109)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F109">
-        <f>IF((B109-C109)&gt;3,IF((B109-C109)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G109">
-        <f>E109+F109</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4900,15 +4857,15 @@
         <v>0.88</v>
       </c>
       <c r="E110" s="3">
-        <f>IF((C110-B110)&gt;3,IF((C110-B110)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F110" s="3">
-        <f>IF((B110-C110)&gt;3,IF((B110-C110)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G110" s="3">
-        <f>E110+F110</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4926,15 +4883,15 @@
         <v>0.88</v>
       </c>
       <c r="E111">
-        <f>IF((C111-B111)&gt;3,IF((C111-B111)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F111">
-        <f>IF((B111-C111)&gt;3,IF((B111-C111)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G111">
-        <f>E111+F111</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4952,15 +4909,15 @@
         <v>0.89</v>
       </c>
       <c r="E112">
-        <f>IF((C112-B112)&gt;3,IF((C112-B112)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F112">
-        <f>IF((B112-C112)&gt;3,IF((B112-C112)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G112">
-        <f>E112+F112</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4978,15 +4935,15 @@
         <v>0.89300000000000002</v>
       </c>
       <c r="E113">
-        <f>IF((C113-B113)&gt;3,IF((C113-B113)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F113">
-        <f>IF((B113-C113)&gt;3,IF((B113-C113)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G113">
-        <f>E113+F113</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5004,15 +4961,15 @@
         <v>0.9</v>
       </c>
       <c r="E114">
-        <f>IF((C114-B114)&gt;3,IF((C114-B114)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F114">
-        <f>IF((B114-C114)&gt;3,IF((B114-C114)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G114">
-        <f>E114+F114</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5030,15 +4987,15 @@
         <v>0.9</v>
       </c>
       <c r="E115">
-        <f>IF((C115-B115)&gt;3,IF((C115-B115)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F115">
-        <f>IF((B115-C115)&gt;3,IF((B115-C115)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G115">
-        <f>E115+F115</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5056,15 +5013,15 @@
         <v>0.9</v>
       </c>
       <c r="E116">
-        <f>IF((C116-B116)&gt;3,IF((C116-B116)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F116">
-        <f>IF((B116-C116)&gt;3,IF((B116-C116)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G116">
-        <f>E116+F116</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5082,15 +5039,15 @@
         <v>0.9</v>
       </c>
       <c r="E117">
-        <f>IF((C117-B117)&gt;3,IF((C117-B117)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F117">
-        <f>IF((B117-C117)&gt;3,IF((B117-C117)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G117">
-        <f>E117+F117</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5108,15 +5065,15 @@
         <v>0.91</v>
       </c>
       <c r="E118">
-        <f>IF((C118-B118)&gt;3,IF((C118-B118)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F118">
-        <f>IF((B118-C118)&gt;3,IF((B118-C118)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G118">
-        <f>E118+F118</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5134,15 +5091,15 @@
         <v>0.92</v>
       </c>
       <c r="E119">
-        <f>IF((C119-B119)&gt;3,IF((C119-B119)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F119">
-        <f>IF((B119-C119)&gt;3,IF((B119-C119)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G119">
-        <f>E119+F119</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5160,15 +5117,15 @@
         <v>0.92</v>
       </c>
       <c r="E120">
-        <f>IF((C120-B120)&gt;3,IF((C120-B120)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F120">
-        <f>IF((B120-C120)&gt;3,IF((B120-C120)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G120">
-        <f>E120+F120</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5186,15 +5143,15 @@
         <v>0.92</v>
       </c>
       <c r="E121">
-        <f>IF((C121-B121)&gt;3,IF((C121-B121)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F121">
-        <f>IF((B121-C121)&gt;3,IF((B121-C121)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G121">
-        <f>E121+F121</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5212,15 +5169,15 @@
         <v>0.92</v>
       </c>
       <c r="E122">
-        <f>IF((C122-B122)&gt;3,IF((C122-B122)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F122">
-        <f>IF((B122-C122)&gt;3,IF((B122-C122)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G122">
-        <f>E122+F122</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5238,15 +5195,15 @@
         <v>0.92</v>
       </c>
       <c r="E123">
-        <f>IF((C123-B123)&gt;3,IF((C123-B123)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F123">
-        <f>IF((B123-C123)&gt;3,IF((B123-C123)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G123">
-        <f>E123+F123</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5264,15 +5221,15 @@
         <v>0.92</v>
       </c>
       <c r="E124">
-        <f>IF((C124-B124)&gt;3,IF((C124-B124)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F124">
-        <f>IF((B124-C124)&gt;3,IF((B124-C124)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G124">
-        <f>E124+F124</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5290,15 +5247,15 @@
         <v>0.92</v>
       </c>
       <c r="E125">
-        <f>IF((C125-B125)&gt;3,IF((C125-B125)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F125">
-        <f>IF((B125-C125)&gt;3,IF((B125-C125)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G125">
-        <f>E125+F125</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5316,15 +5273,15 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="E126">
-        <f>IF((C126-B126)&gt;3,IF((C126-B126)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F126">
-        <f>IF((B126-C126)&gt;3,IF((B126-C126)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G126">
-        <f>E126+F126</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5342,15 +5299,15 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="E127">
-        <f>IF((C127-B127)&gt;3,IF((C127-B127)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F127">
-        <f>IF((B127-C127)&gt;3,IF((B127-C127)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G127">
-        <f>E127+F127</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5368,15 +5325,15 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="E128">
-        <f>IF((C128-B128)&gt;3,IF((C128-B128)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F128">
-        <f>IF((B128-C128)&gt;3,IF((B128-C128)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G128">
-        <f>E128+F128</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5394,15 +5351,15 @@
         <v>0.94</v>
       </c>
       <c r="E129">
-        <f>IF((C129-B129)&gt;3,IF((C129-B129)&gt;0,1,0),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F129">
-        <f>IF((B129-C129)&gt;3,IF((B129-C129)&gt;0,1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G129">
-        <f>E129+F129</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5420,15 +5377,15 @@
         <v>0.94</v>
       </c>
       <c r="E130">
-        <f>IF((C130-B130)&gt;3,IF((C130-B130)&gt;0,1,0),0)</f>
+        <f t="shared" ref="E130:E193" si="6">IF((C130-B130)&gt;3,IF((C130-B130)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F130">
-        <f>IF((B130-C130)&gt;3,IF((B130-C130)&gt;0,1,0),0)</f>
+        <f t="shared" ref="F130:F193" si="7">IF((B130-C130)&gt;3,IF((B130-C130)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G130">
-        <f>E130+F130</f>
+        <f t="shared" ref="G130:G193" si="8">E130+F130</f>
         <v>0</v>
       </c>
     </row>
@@ -5446,15 +5403,15 @@
         <v>0.94</v>
       </c>
       <c r="E131">
-        <f>IF((C131-B131)&gt;3,IF((C131-B131)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F131">
-        <f>IF((B131-C131)&gt;3,IF((B131-C131)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G131">
-        <f>E131+F131</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5472,15 +5429,15 @@
         <v>0.94</v>
       </c>
       <c r="E132">
-        <f>IF((C132-B132)&gt;3,IF((C132-B132)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F132">
-        <f>IF((B132-C132)&gt;3,IF((B132-C132)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G132">
-        <f>E132+F132</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5498,15 +5455,15 @@
         <v>0.94</v>
       </c>
       <c r="E133">
-        <f>IF((C133-B133)&gt;3,IF((C133-B133)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F133">
-        <f>IF((B133-C133)&gt;3,IF((B133-C133)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G133">
-        <f>E133+F133</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5524,15 +5481,15 @@
         <v>0.94</v>
       </c>
       <c r="E134">
-        <f>IF((C134-B134)&gt;3,IF((C134-B134)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F134">
-        <f>IF((B134-C134)&gt;3,IF((B134-C134)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G134">
-        <f>E134+F134</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5550,15 +5507,15 @@
         <v>0.94</v>
       </c>
       <c r="E135">
-        <f>IF((C135-B135)&gt;3,IF((C135-B135)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F135">
-        <f>IF((B135-C135)&gt;3,IF((B135-C135)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G135">
-        <f>E135+F135</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5576,15 +5533,15 @@
         <v>0.95</v>
       </c>
       <c r="E136">
-        <f>IF((C136-B136)&gt;3,IF((C136-B136)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F136">
-        <f>IF((B136-C136)&gt;3,IF((B136-C136)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G136">
-        <f>E136+F136</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5602,15 +5559,15 @@
         <v>0.95</v>
       </c>
       <c r="E137">
-        <f>IF((C137-B137)&gt;3,IF((C137-B137)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F137">
-        <f>IF((B137-C137)&gt;3,IF((B137-C137)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G137">
-        <f>E137+F137</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5628,15 +5585,15 @@
         <v>0.95</v>
       </c>
       <c r="E138">
-        <f>IF((C138-B138)&gt;3,IF((C138-B138)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F138">
-        <f>IF((B138-C138)&gt;3,IF((B138-C138)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G138">
-        <f>E138+F138</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5654,15 +5611,15 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="E139">
-        <f>IF((C139-B139)&gt;3,IF((C139-B139)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F139">
-        <f>IF((B139-C139)&gt;3,IF((B139-C139)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G139">
-        <f>E139+F139</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5680,15 +5637,15 @@
         <v>0.96</v>
       </c>
       <c r="E140" s="3">
-        <f>IF((C140-B140)&gt;3,IF((C140-B140)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F140" s="3">
-        <f>IF((B140-C140)&gt;3,IF((B140-C140)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G140" s="3">
-        <f>E140+F140</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5706,15 +5663,15 @@
         <v>0.96</v>
       </c>
       <c r="E141">
-        <f>IF((C141-B141)&gt;3,IF((C141-B141)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F141">
-        <f>IF((B141-C141)&gt;3,IF((B141-C141)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G141">
-        <f>E141+F141</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5732,15 +5689,15 @@
         <v>0.96</v>
       </c>
       <c r="E142">
-        <f>IF((C142-B142)&gt;3,IF((C142-B142)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F142">
-        <f>IF((B142-C142)&gt;3,IF((B142-C142)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G142">
-        <f>E142+F142</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5758,15 +5715,15 @@
         <v>0.96</v>
       </c>
       <c r="E143">
-        <f>IF((C143-B143)&gt;3,IF((C143-B143)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F143">
-        <f>IF((B143-C143)&gt;3,IF((B143-C143)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G143">
-        <f>E143+F143</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5784,15 +5741,15 @@
         <v>0.96</v>
       </c>
       <c r="E144">
-        <f>IF((C144-B144)&gt;3,IF((C144-B144)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F144">
-        <f>IF((B144-C144)&gt;3,IF((B144-C144)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G144">
-        <f>E144+F144</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5810,15 +5767,15 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="E145">
-        <f>IF((C145-B145)&gt;3,IF((C145-B145)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F145">
-        <f>IF((B145-C145)&gt;3,IF((B145-C145)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G145">
-        <f>E145+F145</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5836,41 +5793,41 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="E146">
-        <f>IF((C146-B146)&gt;3,IF((C146-B146)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F146">
-        <f>IF((B146-C146)&gt;3,IF((B146-C146)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G146">
-        <f>E146+F146</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="3">
         <v>969</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="3">
         <v>1000</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="4">
         <v>0.96899999999999997</v>
       </c>
-      <c r="E147">
-        <f>IF((C147-B147)&gt;3,IF((C147-B147)&gt;0,1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <f>IF((B147-C147)&gt;3,IF((B147-C147)&gt;0,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <f>E147+F147</f>
+      <c r="E147" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F147" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5888,15 +5845,15 @@
         <v>0.97</v>
       </c>
       <c r="E148">
-        <f>IF((C148-B148)&gt;3,IF((C148-B148)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F148">
-        <f>IF((B148-C148)&gt;3,IF((B148-C148)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G148">
-        <f>E148+F148</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5914,15 +5871,15 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="E149">
-        <f>IF((C149-B149)&gt;3,IF((C149-B149)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F149">
-        <f>IF((B149-C149)&gt;3,IF((B149-C149)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G149">
-        <f>E149+F149</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5940,15 +5897,15 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="E150">
-        <f>IF((C150-B150)&gt;3,IF((C150-B150)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F150">
-        <f>IF((B150-C150)&gt;3,IF((B150-C150)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G150">
-        <f>E150+F150</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5966,15 +5923,15 @@
         <v>0.98</v>
       </c>
       <c r="E151" s="3">
-        <f>IF((C151-B151)&gt;3,IF((C151-B151)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F151" s="3">
-        <f>IF((B151-C151)&gt;3,IF((B151-C151)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G151" s="3">
-        <f>E151+F151</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5992,15 +5949,15 @@
         <v>0.98</v>
       </c>
       <c r="E152">
-        <f>IF((C152-B152)&gt;3,IF((C152-B152)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F152">
-        <f>IF((B152-C152)&gt;3,IF((B152-C152)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G152">
-        <f>E152+F152</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6018,15 +5975,15 @@
         <v>0.98</v>
       </c>
       <c r="E153">
-        <f>IF((C153-B153)&gt;3,IF((C153-B153)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F153">
-        <f>IF((B153-C153)&gt;3,IF((B153-C153)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G153">
-        <f>E153+F153</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6044,15 +6001,15 @@
         <v>0.98</v>
       </c>
       <c r="E154">
-        <f>IF((C154-B154)&gt;3,IF((C154-B154)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F154">
-        <f>IF((B154-C154)&gt;3,IF((B154-C154)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G154">
-        <f>E154+F154</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6070,15 +6027,15 @@
         <v>0.98</v>
       </c>
       <c r="E155">
-        <f>IF((C155-B155)&gt;3,IF((C155-B155)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F155">
-        <f>IF((B155-C155)&gt;3,IF((B155-C155)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G155">
-        <f>E155+F155</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6096,15 +6053,15 @@
         <v>0.98</v>
       </c>
       <c r="E156">
-        <f>IF((C156-B156)&gt;3,IF((C156-B156)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F156">
-        <f>IF((B156-C156)&gt;3,IF((B156-C156)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G156">
-        <f>E156+F156</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -6122,15 +6079,15 @@
         <v>0.98</v>
       </c>
       <c r="E157">
-        <f>IF((C157-B157)&gt;3,IF((C157-B157)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F157">
-        <f>IF((B157-C157)&gt;3,IF((B157-C157)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G157">
-        <f>E157+F157</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6148,15 +6105,15 @@
         <v>0.98</v>
       </c>
       <c r="E158">
-        <f>IF((C158-B158)&gt;3,IF((C158-B158)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F158">
-        <f>IF((B158-C158)&gt;3,IF((B158-C158)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G158">
-        <f>E158+F158</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6174,15 +6131,15 @@
         <v>0.98</v>
       </c>
       <c r="E159">
-        <f>IF((C159-B159)&gt;3,IF((C159-B159)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F159">
-        <f>IF((B159-C159)&gt;3,IF((B159-C159)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G159">
-        <f>E159+F159</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6200,15 +6157,15 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="E160" s="3">
-        <f>IF((C160-B160)&gt;3,IF((C160-B160)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F160" s="3">
-        <f>IF((B160-C160)&gt;3,IF((B160-C160)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G160" s="3">
-        <f>E160+F160</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6226,15 +6183,15 @@
         <v>0.99</v>
       </c>
       <c r="E161">
-        <f>IF((C161-B161)&gt;3,IF((C161-B161)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F161">
-        <f>IF((B161-C161)&gt;3,IF((B161-C161)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G161">
-        <f>E161+F161</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6252,15 +6209,15 @@
         <v>0.99</v>
       </c>
       <c r="E162">
-        <f>IF((C162-B162)&gt;3,IF((C162-B162)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F162">
-        <f>IF((B162-C162)&gt;3,IF((B162-C162)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G162">
-        <f>E162+F162</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6278,15 +6235,15 @@
         <v>0.99299999999999999</v>
       </c>
       <c r="E163">
-        <f>IF((C163-B163)&gt;3,IF((C163-B163)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F163">
-        <f>IF((B163-C163)&gt;3,IF((B163-C163)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G163">
-        <f>E163+F163</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6304,15 +6261,15 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="E164">
-        <f>IF((C164-B164)&gt;3,IF((C164-B164)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F164">
-        <f>IF((B164-C164)&gt;3,IF((B164-C164)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G164">
-        <f>E164+F164</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6330,15 +6287,15 @@
         <v>0.996</v>
       </c>
       <c r="E165">
-        <f>IF((C165-B165)&gt;3,IF((C165-B165)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F165">
-        <f>IF((B165-C165)&gt;3,IF((B165-C165)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G165">
-        <f>E165+F165</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -6356,15 +6313,15 @@
         <v>0.997</v>
       </c>
       <c r="E166">
-        <f>IF((C166-B166)&gt;3,IF((C166-B166)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F166">
-        <f>IF((B166-C166)&gt;3,IF((B166-C166)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G166">
-        <f>E166+F166</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6382,15 +6339,15 @@
         <v>0.998</v>
       </c>
       <c r="E167">
-        <f>IF((C167-B167)&gt;3,IF((C167-B167)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F167">
-        <f>IF((B167-C167)&gt;3,IF((B167-C167)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G167">
-        <f>E167+F167</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6408,15 +6365,15 @@
         <v>1.0029999999999999</v>
       </c>
       <c r="E168">
-        <f>IF((C168-B168)&gt;3,IF((C168-B168)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F168">
-        <f>IF((B168-C168)&gt;3,IF((B168-C168)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G168">
-        <f>E168+F168</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6434,15 +6391,15 @@
         <v>1.004</v>
       </c>
       <c r="E169">
-        <f>IF((C169-B169)&gt;3,IF((C169-B169)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F169">
-        <f>IF((B169-C169)&gt;3,IF((B169-C169)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G169">
-        <f>E169+F169</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6460,15 +6417,15 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="E170">
-        <f>IF((C170-B170)&gt;3,IF((C170-B170)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F170">
-        <f>IF((B170-C170)&gt;3,IF((B170-C170)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G170">
-        <f>E170+F170</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6486,15 +6443,15 @@
         <v>1.006</v>
       </c>
       <c r="E171">
-        <f>IF((C171-B171)&gt;3,IF((C171-B171)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F171">
-        <f>IF((B171-C171)&gt;3,IF((B171-C171)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G171">
-        <f>E171+F171</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6512,15 +6469,15 @@
         <v>1.01</v>
       </c>
       <c r="E172">
-        <f>IF((C172-B172)&gt;3,IF((C172-B172)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F172">
-        <f>IF((B172-C172)&gt;3,IF((B172-C172)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G172">
-        <f>E172+F172</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6538,15 +6495,15 @@
         <v>1.02</v>
       </c>
       <c r="E173">
-        <f>IF((C173-B173)&gt;3,IF((C173-B173)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F173">
-        <f>IF((B173-C173)&gt;3,IF((B173-C173)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G173">
-        <f>E173+F173</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6564,15 +6521,15 @@
         <v>1.02</v>
       </c>
       <c r="E174">
-        <f>IF((C174-B174)&gt;3,IF((C174-B174)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F174">
-        <f>IF((B174-C174)&gt;3,IF((B174-C174)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G174">
-        <f>E174+F174</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6590,41 +6547,41 @@
         <v>1.02</v>
       </c>
       <c r="E175">
-        <f>IF((C175-B175)&gt;3,IF((C175-B175)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F175">
-        <f>IF((B175-C175)&gt;3,IF((B175-C175)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G175">
-        <f>E175+F175</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="3">
         <v>102</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="3">
         <v>100</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176" s="5">
         <v>1.02</v>
       </c>
-      <c r="E176">
-        <f>IF((C176-B176)&gt;3,IF((C176-B176)&gt;0,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <f>IF((B176-C176)&gt;3,IF((B176-C176)&gt;0,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <f>E176+F176</f>
+      <c r="E176" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F176" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G176" s="3">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6642,15 +6599,15 @@
         <v>1.022</v>
       </c>
       <c r="E177">
-        <f>IF((C177-B177)&gt;3,IF((C177-B177)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F177">
-        <f>IF((B177-C177)&gt;3,IF((B177-C177)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G177">
-        <f>E177+F177</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6668,15 +6625,15 @@
         <v>1.0269999999999999</v>
       </c>
       <c r="E178" s="3">
-        <f>IF((C178-B178)&gt;3,IF((C178-B178)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F178" s="3">
-        <f>IF((B178-C178)&gt;3,IF((B178-C178)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G178" s="3">
-        <f>E178+F178</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6694,15 +6651,15 @@
         <v>1.04</v>
       </c>
       <c r="E179">
-        <f>IF((C179-B179)&gt;3,IF((C179-B179)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F179">
-        <f>IF((B179-C179)&gt;3,IF((B179-C179)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G179">
-        <f>E179+F179</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6720,15 +6677,15 @@
         <v>1.04</v>
       </c>
       <c r="E180">
-        <f>IF((C180-B180)&gt;3,IF((C180-B180)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F180">
-        <f>IF((B180-C180)&gt;3,IF((B180-C180)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G180">
-        <f>E180+F180</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6746,15 +6703,15 @@
         <v>1.04</v>
       </c>
       <c r="E181">
-        <f>IF((C181-B181)&gt;3,IF((C181-B181)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F181">
-        <f>IF((B181-C181)&gt;3,IF((B181-C181)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G181">
-        <f>E181+F181</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6772,15 +6729,15 @@
         <v>1.04</v>
       </c>
       <c r="E182">
-        <f>IF((C182-B182)&gt;3,IF((C182-B182)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F182">
-        <f>IF((B182-C182)&gt;3,IF((B182-C182)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G182">
-        <f>E182+F182</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6798,15 +6755,15 @@
         <v>1.048</v>
       </c>
       <c r="E183">
-        <f>IF((C183-B183)&gt;3,IF((C183-B183)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F183">
-        <f>IF((B183-C183)&gt;3,IF((B183-C183)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G183">
-        <f>E183+F183</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -6824,41 +6781,41 @@
         <v>1.05</v>
       </c>
       <c r="E184">
-        <f>IF((C184-B184)&gt;3,IF((C184-B184)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F184">
-        <f>IF((B184-C184)&gt;3,IF((B184-C184)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G184">
-        <f>E184+F184</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="3">
         <v>1052</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="3">
         <v>1000</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="4">
         <v>1.052</v>
       </c>
-      <c r="E185">
-        <f>IF((C185-B185)&gt;3,IF((C185-B185)&gt;0,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <f>IF((B185-C185)&gt;3,IF((B185-C185)&gt;0,1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <f>E185+F185</f>
+      <c r="E185" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F185" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -6876,15 +6833,15 @@
         <v>1.0640000000000001</v>
       </c>
       <c r="E186">
-        <f>IF((C186-B186)&gt;3,IF((C186-B186)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F186">
-        <f>IF((B186-C186)&gt;3,IF((B186-C186)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G186">
-        <f>E186+F186</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -6902,15 +6859,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E187" s="3">
-        <f>IF((C187-B187)&gt;3,IF((C187-B187)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F187" s="3">
-        <f>IF((B187-C187)&gt;3,IF((B187-C187)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G187" s="3">
-        <f>E187+F187</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -6928,15 +6885,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E188">
-        <f>IF((C188-B188)&gt;3,IF((C188-B188)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F188">
-        <f>IF((B188-C188)&gt;3,IF((B188-C188)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G188">
-        <f>E188+F188</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -6954,15 +6911,15 @@
         <v>1.1020000000000001</v>
       </c>
       <c r="E189">
-        <f>IF((C189-B189)&gt;3,IF((C189-B189)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F189">
-        <f>IF((B189-C189)&gt;3,IF((B189-C189)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G189">
-        <f>E189+F189</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -6980,15 +6937,15 @@
         <v>1.206</v>
       </c>
       <c r="E190">
-        <f>IF((C190-B190)&gt;3,IF((C190-B190)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F190">
-        <f>IF((B190-C190)&gt;3,IF((B190-C190)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G190">
-        <f>E190+F190</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7006,15 +6963,15 @@
         <v>1.25</v>
       </c>
       <c r="E191">
-        <f>IF((C191-B191)&gt;3,IF((C191-B191)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F191">
-        <f>IF((B191-C191)&gt;3,IF((B191-C191)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G191">
-        <f>E191+F191</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7032,15 +6989,15 @@
         <v>1.54</v>
       </c>
       <c r="E192">
-        <f>IF((C192-B192)&gt;3,IF((C192-B192)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F192">
-        <f>IF((B192-C192)&gt;3,IF((B192-C192)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G192">
-        <f>E192+F192</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7058,15 +7015,15 @@
         <v>1.714</v>
       </c>
       <c r="E193">
-        <f>IF((C193-B193)&gt;3,IF((C193-B193)&gt;0,1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F193">
-        <f>IF((B193-C193)&gt;3,IF((B193-C193)&gt;0,1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G193">
-        <f>E193+F193</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7084,15 +7041,15 @@
         <v>1.72</v>
       </c>
       <c r="E194" s="3">
-        <f>IF((C194-B194)&gt;3,IF((C194-B194)&gt;0,1,0),0)</f>
+        <f t="shared" ref="E194:E205" si="9">IF((C194-B194)&gt;3,IF((C194-B194)&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="F194" s="3">
-        <f>IF((B194-C194)&gt;3,IF((B194-C194)&gt;0,1,0),0)</f>
+        <f t="shared" ref="F194:F205" si="10">IF((B194-C194)&gt;3,IF((B194-C194)&gt;0,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G194" s="3">
-        <f>E194+F194</f>
+        <f t="shared" ref="G194:G205" si="11">E194+F194</f>
         <v>1</v>
       </c>
     </row>
@@ -7110,15 +7067,15 @@
         <v>1.7330000000000001</v>
       </c>
       <c r="E195">
-        <f>IF((C195-B195)&gt;3,IF((C195-B195)&gt;0,1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F195">
-        <f>IF((B195-C195)&gt;3,IF((B195-C195)&gt;0,1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G195">
-        <f>E195+F195</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7136,15 +7093,15 @@
         <v>1.75</v>
       </c>
       <c r="E196">
-        <f>IF((C196-B196)&gt;3,IF((C196-B196)&gt;0,1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F196">
-        <f>IF((B196-C196)&gt;3,IF((B196-C196)&gt;0,1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G196">
-        <f>E196+F196</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7162,15 +7119,15 @@
         <v>1.8</v>
       </c>
       <c r="E197">
-        <f>IF((C197-B197)&gt;3,IF((C197-B197)&gt;0,1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F197">
-        <f>IF((B197-C197)&gt;3,IF((B197-C197)&gt;0,1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G197">
-        <f>E197+F197</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7188,15 +7145,15 @@
         <v>1.8</v>
       </c>
       <c r="E198">
-        <f>IF((C198-B198)&gt;3,IF((C198-B198)&gt;0,1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F198">
-        <f>IF((B198-C198)&gt;3,IF((B198-C198)&gt;0,1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G198">
-        <f>E198+F198</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7214,15 +7171,15 @@
         <v>1.8460000000000001</v>
       </c>
       <c r="E199">
-        <f>IF((C199-B199)&gt;3,IF((C199-B199)&gt;0,1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F199">
-        <f>IF((B199-C199)&gt;3,IF((B199-C199)&gt;0,1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G199">
-        <f>E199+F199</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7240,15 +7197,15 @@
         <v>1.9330000000000001</v>
       </c>
       <c r="E200">
-        <f>IF((C200-B200)&gt;3,IF((C200-B200)&gt;0,1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F200">
-        <f>IF((B200-C200)&gt;3,IF((B200-C200)&gt;0,1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G200">
-        <f>E200+F200</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7266,15 +7223,15 @@
         <v>1.9330000000000001</v>
       </c>
       <c r="E201">
-        <f>IF((C201-B201)&gt;3,IF((C201-B201)&gt;0,1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F201">
-        <f>IF((B201-C201)&gt;3,IF((B201-C201)&gt;0,1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G201">
-        <f>E201+F201</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7292,15 +7249,15 @@
         <v>2</v>
       </c>
       <c r="E202" s="3">
-        <f>IF((C202-B202)&gt;3,IF((C202-B202)&gt;0,1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F202" s="3">
-        <f>IF((B202-C202)&gt;3,IF((B202-C202)&gt;0,1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G202" s="3">
-        <f>E202+F202</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7318,15 +7275,15 @@
         <v>2.411</v>
       </c>
       <c r="E203">
-        <f>IF((C203-B203)&gt;3,IF((C203-B203)&gt;0,1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F203">
-        <f>IF((B203-C203)&gt;3,IF((B203-C203)&gt;0,1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G203">
-        <f>E203+F203</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7344,15 +7301,15 @@
         <v>3.5</v>
       </c>
       <c r="E204">
-        <f>IF((C204-B204)&gt;3,IF((C204-B204)&gt;0,1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F204">
-        <f>IF((B204-C204)&gt;3,IF((B204-C204)&gt;0,1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G204">
-        <f>E204+F204</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7370,24 +7327,19 @@
         <v>5.5</v>
       </c>
       <c r="E205" s="3">
-        <f>IF((C205-B205)&gt;3,IF((C205-B205)&gt;0,1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F205" s="3">
-        <f>IF((B205-C205)&gt;3,IF((B205-C205)&gt;0,1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G205" s="3">
-        <f>E205+F205</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G205">
-    <sortState ref="A2:G205">
-      <sortCondition ref="D2:D205"/>
-    </sortState>
-  </autoFilter>
   <sortState ref="A2:D205">
     <sortCondition ref="D2:D205"/>
   </sortState>

--- a/weird.xlsx
+++ b/weird.xlsx
@@ -1063,11 +1063,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1412,7 +1413,7 @@
   <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,25 +2338,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>13</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>20</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2715,25 +2716,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:7" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>19</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>25</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="4">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3822,25 +3823,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:7" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>83</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>90</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="4">
         <f t="shared" si="10"/>
         <v>92.222222222222229</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>

--- a/weird.xlsx
+++ b/weird.xlsx
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,25 +2392,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>134</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>200</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3013,25 +3013,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:7" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>123</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>150</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="4">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3580,25 +3580,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:7" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>90</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>100</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="4">
         <f t="shared" si="10"/>
         <v>90</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6287,7 +6287,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <customFilters>
-        <customFilter operator="lessThan" val="100"/>
+        <customFilter operator="lessThanOrEqual" val="100"/>
       </customFilters>
     </filterColumn>
     <filterColumn colId="6">
